--- a/legendre_out/CSV/analytically/a1/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a4/a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,43 +374,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>a4</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a4_err</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>4.217154433913277e-05</v>
+        <v>4.196243976244959e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.56418033950738e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.593379837539078e-05</v>
+        <v>-1.452838056908766e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.017446346710697e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.542479731554603e-05</v>
+        <v>1.650224578956376e-06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.380357929027554e-06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.955798371366424</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.412020940271617</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.988949592841606</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +450,31 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>3.845774836999525e-05</v>
+        <v>3.807620100579928e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.515245135821586e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.564396973319662e-05</v>
+        <v>-1.269404299496371e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.000571898364255e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.428110229422853e-05</v>
+        <v>1.678373999196573e-06</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.375126935151228e-06</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.021427790956034</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.09079641319387932</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.005356947739009</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +482,31 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.605494179276468e-05</v>
+        <v>3.607232420441194e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.122533306172192e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>2.122583622491063e-05</v>
+        <v>-1.158870892336571e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9.71477945362566e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.15457194728866e-05</v>
+        <v>1.684768501992088e-06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.309469198027368e-06</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.008021009725129</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4049214124618348</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.002005252431282</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +514,31 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>3.550025460327087e-05</v>
+        <v>3.513051506045734e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.341378707909787e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.393344571797154e-05</v>
+        <v>-1.314126748160504e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9.829096667412549e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.439539769307595e-05</v>
+        <v>1.654270359994616e-06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.298042437642014e-06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.873871679445887</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.208767700791107</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.468467919861472</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +546,31 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>3.36444413126303e-05</v>
+        <v>3.323066209910652e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.149970334204582e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.193809883461787e-05</v>
+        <v>-9.893704716011872e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.352795322005458e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.18642237567189e-05</v>
+        <v>1.593347648970106e-06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.216204067153466e-06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.7225731098688</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.008235211125858677</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.430643277467199</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +578,31 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>3.314262071905833e-05</v>
+        <v>3.288884169583444e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.158576408325318e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.187289319802908e-05</v>
+        <v>-1.013423293619458e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.967107137096568e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.108733290877875e-05</v>
+        <v>1.741641531036948e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.358638036837062e-06</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.109576780830526</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08764572868772136</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.027394195207632</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +610,31 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>3.245328318828654e-05</v>
+        <v>3.223724122167169e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.208249811128351e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>2.251038512760206e-05</v>
+        <v>-9.141107114062668e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9.879290405035274e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.010058167634699e-05</v>
+        <v>1.727250747901481e-06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.320537696535479e-06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.275447502256044</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1220285706345784</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.818861875564011</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +642,31 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>3.136110904018113e-05</v>
+        <v>3.127478009807408e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.924189719800929e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.924709533683083e-05</v>
+        <v>-8.135468201328872e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.896902101119312e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.766199613591976e-06</v>
+        <v>1.572603527291204e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.141067537478995e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.572762795592697</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.07271210284307283</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.143190698898174</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +674,31 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>2.718280475423664e-05</v>
+        <v>2.712546552099294e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.798864038128033e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.814739562149946e-05</v>
+        <v>-6.00885578506384e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7.780256841980674e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.398171084407497e-06</v>
+        <v>1.39167374858977e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.881660345528005e-06</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.744852327718792</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3144929094415192</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.186213081929698</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +706,31 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>2.364054077057145e-05</v>
+        <v>2.339843036387937e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.307165826382708e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>1.329604177111338e-05</v>
+        <v>-4.815966795117806e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.653193948928013e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.446358292804652e-06</v>
+        <v>1.36137462202262e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.78050293790598e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.320591438691942</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.08051580072310383</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.080147859672985</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +738,31 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>1.573836905545648e-05</v>
+        <v>1.566170082233631e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9.22976880511502e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>9.435432184346908e-06</v>
+        <v>-2.473890982828083e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6.163967321246378e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.679585901092804e-06</v>
+        <v>1.154846616271639e-06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.468940562521685e-06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.628737421447052</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2286429790973048</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.407184355361763</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +770,31 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>9.54676765143689e-06</v>
+        <v>9.413891851647254e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.355978594577512e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>6.40486961761751e-06</v>
+        <v>-1.305421350668774e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.337395683007795e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.269584215369927e-07</v>
+        <v>8.273109730350795e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.026993503539908e-06</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.880341567005613</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0960610952251284</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.970085391751403</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +802,31 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>6.798744405824187e-06</v>
+        <v>6.839862626195486e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5.277744470391854e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>5.659555440622822e-06</v>
+        <v>-1.772714126929779e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.567629873987732e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.035172712224008e-06</v>
+        <v>6.561297127793662e-07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.688736596783542e-07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.26562247486925</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00268268350358003</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.066405618717312</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +834,31 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>3.43710235991516e-05</v>
+        <v>3.469606843436597e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.42291183358235e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>1.434595562076752e-05</v>
+        <v>-2.240121554563989e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9.377727585230742e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.167761301441222e-05</v>
+        <v>1.402221743778775e-06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.033642201036212e-06</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.324829013145059</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1761676482527166</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.581207253286265</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +866,31 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>5.380423682396832e-05</v>
+        <v>5.343162756477133e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.590011470176721e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>2.699907843363983e-05</v>
+        <v>-2.427574157278775e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.344752140831798e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.618175307145727e-05</v>
+        <v>2.072465974318085e-06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.016757024339812e-06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.90979986075176</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02759666329019395</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.727449965187939</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +898,31 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>7.358252409552264e-05</v>
+        <v>7.324954787750102e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.559865193780407e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>3.655516799958181e-05</v>
+        <v>-3.0552977170507e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.836095342525271e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.274086777760393e-05</v>
+        <v>2.859140633847877e-06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.178345949690347e-06</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.06085887593101</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0258884920092316</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.765214718982752</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +930,31 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>6.925166508020787e-05</v>
+        <v>6.885830133304613e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.234810352347503e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>3.366177752929927e-05</v>
+        <v>-2.88523608591257e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.740061894373479e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.10587553850039e-05</v>
+        <v>2.720704058432848e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.923218691227376e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.03543703549017</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03983496184325408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.508859258872544</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +962,31 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>7.029922245888928e-05</v>
+        <v>6.981738941036619e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.684364534381807e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>3.822056504677166e-05</v>
+        <v>-3.555320454754485e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.813733743092932e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.785146405663376e-05</v>
+        <v>2.763343927465753e-06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.057665824335073e-06</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.290084177140143</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0542439162832804</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.322521044285036</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +994,31 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>6.976998143886456e-05</v>
+        <v>6.922211860037839e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.570404577084781e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>3.706576304273942e-05</v>
+        <v>-3.531315858548675e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.829827728595575e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.729014214285595e-05</v>
+        <v>2.857506134082549e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.093907446290586e-06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.245600858909721</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1234647295444108</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.81140021472743</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +1026,31 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>7.058453054476369e-05</v>
+        <v>7.000618409609051e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.703366278548162e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>3.846912217787051e-05</v>
+        <v>-3.801709975201157e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.904283146682837e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.040281819560868e-05</v>
+        <v>2.934233517612017e-06</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.262669954873275e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.16005922275348</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02482285777463533</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.790014805688371</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +1058,31 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.641830978557383e-05</v>
+        <v>7.545879413419056e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4.133566060463411e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>4.325685249853074e-05</v>
+        <v>-4.91340695264243e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.140387600681147e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.163017312363951e-05</v>
+        <v>3.32300364640343e-06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.683624326098596e-06</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.389306917013585</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1166906154058642</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.847326729253396</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +1090,31 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0001041739549121936</v>
+        <v>0.0001038964681295238</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.240777209305762e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>7.468361144692707e-05</v>
+        <v>-0.0001089723334395028</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.519075635023939e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0001092172583723309</v>
+        <v>4.936634169374317e-06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.483835026771406e-06</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.416549533349326</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1154459045829064</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.854137383337332</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +1122,31 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001262536434085744</v>
+        <v>0.0001264445981060011</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8.583983156359064e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>8.615409503601613e-05</v>
+        <v>-0.0001528300788034873</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.538463024267826e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0001519176530299084</v>
+        <v>6.816027967989017e-06</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.634400595373115e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5960283561246081</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9635040026706334</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.149007089031152</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +1154,31 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001549969571748024</v>
+        <v>0.0001563571592586568</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0001194967414823909</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00012069130206806</v>
+        <v>-0.0002124758448329101</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.902961201989461e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.000209337244098555</v>
+        <v>7.439242366588355e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.186489895802126e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.018263480732095</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5547737160305962</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7545658701830237</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +1186,31 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001623007651363054</v>
+        <v>0.0001634328090011945</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.000114810563100869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001156372650643539</v>
+        <v>-0.0002205276058923608</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5.745898340913563e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.000218010322395711</v>
+        <v>7.509991237611858e-06</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.159976355233988e-05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.973129463798052</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7407012915670065</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493282365949513</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +1218,31 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001477663737766138</v>
+        <v>0.0001492409838110811</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.0001082496195608206</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001114846764257913</v>
+        <v>-0.0002052536939536777</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.584026701695739e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0002035729658335735</v>
+        <v>7.169079342289238e-06</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.122840971606547e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.790638161653606</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1473744058839891</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.697659540413401</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +1250,31 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001465673652098325</v>
+        <v>0.0001468548743534197</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0001062860118597098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000108474562397552</v>
+        <v>-0.0002004975667827518</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.693315372440846e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.000199863802093712</v>
+        <v>8.054099012100152e-06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.170112133205314e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.326962430073489</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3635610144248154</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.081740607518372</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +1282,31 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001439646996569042</v>
+        <v>0.0001454692879284798</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.776326198253859e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>9.649894307101806e-05</v>
+        <v>-0.0001983633921123956</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.590236763969277e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0001937651488995835</v>
+        <v>8.547801303631814e-06</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.186848202763433e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.375980142256915</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8483588529926858</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3439950355642288</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +1314,31 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001468379075780201</v>
+        <v>0.0001468731956885634</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.000102951538461945</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001045219610010467</v>
+        <v>-0.0001988938041898261</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5.376446100688579e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0001985487989684869</v>
+        <v>7.380310026886674e-06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.100128571039525e-05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.25184519729813</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6895495460261528</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5629612993245325</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +1346,31 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>0.000141041486814249</v>
+        <v>0.0001405960653753493</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9.711871278356951e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>9.645365197592542e-05</v>
+        <v>-0.0001919829316311127</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5.272878406910776e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.000190085394567427</v>
+        <v>7.950468337554324e-06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.099394579926258e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.178675273779077</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5283821265363583</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7946688184447692</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +1378,31 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001340319993267681</v>
+        <v>0.0001335730212217224</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.346876777559552e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>9.624422584355532e-05</v>
+        <v>-0.0001948598102139254</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.193992010503696e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0001968788853834099</v>
+        <v>6.832667315424611e-06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.022049977422294e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.854440674901515</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5824723113136028</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7136101687253787</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1410,31 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0001242149856076682</v>
+        <v>0.0001250087703900519</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9.213610135059036e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>9.182808293209612e-05</v>
+        <v>-0.000183153205296565</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>5.074392660534626e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0001811542595564194</v>
+        <v>7.094683638474608e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.031288071587169e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.581893248382584</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8120427407654414</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3954733120956461</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1442,31 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0001176573047975989</v>
+        <v>0.000120630224787118</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>8.615324835221886e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>8.555759948834747e-05</v>
+        <v>-0.0001801823968235963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.781555441698452e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0001746020006875707</v>
+        <v>5.758497646786809e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.267652926006487e-06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.949757799997033</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5662682152623959</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7374394499992581</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1474,31 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0001074432985053127</v>
+        <v>0.0001102405580929378</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.8951970661162e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>7.817413378251758e-05</v>
+        <v>-0.0001640511958817926</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.691164705351632e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0001573443291634371</v>
+        <v>6.467224822307937e-06</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.64726518209015e-06</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.541643953631175</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2360931217411122</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.385410988407794</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1506,31 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001097643307456281</v>
+        <v>0.0001100757379174181</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>7.632861481183739e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>7.682536151896721e-05</v>
+        <v>-0.0001570711351919736</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.490546847709426e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0001565726251806582</v>
+        <v>6.518629047887254e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9.064631806440194e-06</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.128919722987417</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8896570447469238</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2822299307468543</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1538,31 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>9.319544490126315e-05</v>
+        <v>9.469190340210884e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.641930803247278e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>6.658300023351354e-05</v>
+        <v>-0.0001366729341452179</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.858525551553863e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0001337597941518633</v>
+        <v>5.280780018398563e-06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.753208815946676e-06</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.984397135413293</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2889021967370443</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.246099283853323</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1570,31 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>8.311353725934876e-05</v>
+        <v>8.359622625159593e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>5.877649513733687e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>5.996262213986386e-05</v>
+        <v>-0.0001169720574515194</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.290384867011161e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0001164623608231383</v>
+        <v>4.665216561776514e-06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.580061425665882e-06</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.473046469954681</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.242108895597672</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.36826161748867</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1602,31 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>7.317142977549405e-05</v>
+        <v>7.268138442407251e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>5.003471670974511e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>5.152014210781742e-05</v>
+        <v>-9.074637058745169e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.714934260598558e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>-9.160483510146098e-05</v>
+        <v>3.967464979762137e-06</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.651038961399052e-06</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.238708658697455</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3746630108863011</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.059677164674364</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1634,31 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>5.947422749212227e-05</v>
+        <v>5.891715506708798e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.968764325960136e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>4.083196478157492e-05</v>
+        <v>-6.798708098483198e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.12925460390307e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>-6.930649957235602e-05</v>
+        <v>3.172815048954166e-06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.424281235857454e-06</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.635814116448497</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6204920977044996</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6589535291121242</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1666,31 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>7.095942333477431e-05</v>
+        <v>6.924254414309645e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.077697365444336e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>5.314474922473274e-05</v>
+        <v>-9.640367762399495e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2.664208189138261e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0001003311043165309</v>
+        <v>3.689905281125615e-06</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.463369148699997e-06</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.728592132334844</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6042207093459816</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.6821480330837111</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1698,31 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>4.961981227771411e-05</v>
+        <v>4.948451467064797e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.53969935728517e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>2.62333247499448e-05</v>
+        <v>-4.28513139123103e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.772336961940908e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.316529175349155e-05</v>
+        <v>2.690544198599848e-06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.753853375484639e-06</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.225354223711962</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3763657201761542</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.056338555927991</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1730,31 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>5.239961012762312e-05</v>
+        <v>5.214969613008913e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.554762801916775e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>2.613550627293003e-05</v>
+        <v>-3.137032668815613e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.587614804076673e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.16239867686321e-05</v>
+        <v>2.571121234448551e-06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.528504871288768e-06</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5.198787551357642</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2675019721789492</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.299696887839411</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1762,31 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>5.039065376630392e-05</v>
+        <v>5.01934213333636e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.482339785537352e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>2.569727247658825e-05</v>
+        <v>-2.71616677455727e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.449595774231112e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.779868744908163e-05</v>
+        <v>2.282996966057469e-06</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.235399309979722e-06</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.811062905209779</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.09874959106711489</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.952765726302445</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1794,31 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>4.490169532672402e-05</v>
+        <v>4.457818851689446e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.988997477996557e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>2.063255747225629e-05</v>
+        <v>-1.840155470168061e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.25162557077345e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.962705383007191e-05</v>
+        <v>2.068045259593242e-06</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.830697987223836e-06</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11.60403648756731</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0205519618574308</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.901009121891828</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1826,31 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>4.222137372218039e-05</v>
+        <v>4.212684158525063e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.651832328247573e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>1.682046814895549e-05</v>
+        <v>-1.671811854789252e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.196330151874092e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695220458961401e-05</v>
+        <v>1.982459496331259e-06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.689748080309191e-06</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.098721205778449</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5414427087655327</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7746803014446122</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1858,31 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>4.091636637079524e-05</v>
+        <v>4.108716456262639e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1.5129604180545e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>1.529117286634139e-05</v>
+        <v>-1.577143126404369e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1.133288813622404e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.565061720891604e-05</v>
+        <v>1.872711237489151e-06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.570642814741208e-06</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.775110671178334</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.148260690148488</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.693777667794583</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1890,31 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.429103111908763e-05</v>
+        <v>3.446380050034004e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>9.529112975087472e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>9.862907324212229e-06</v>
+        <v>-1.06945204945977e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1.006361117639727e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.065523929033936e-05</v>
+        <v>1.679636459608505e-06</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.237464815583953e-06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15.19763314230656</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.004308385731117914</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.799408285576639</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1922,31 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.427772898863212e-05</v>
+        <v>3.42622039487366e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1.030908119715904e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>1.072208018669696e-05</v>
+        <v>-1.019639100138032e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1.03193035084144e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.070422468416815e-05</v>
+        <v>1.729636095001489e-06</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.301100632766225e-06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16.15045488725938</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.002823779618605027</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.037613721814845</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1954,31 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>3.77637191488136e-05</v>
+        <v>3.780255745940953e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>9.675438509393562e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>9.803534948571665e-06</v>
+        <v>-1.341705215148631e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1.135431929167188e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.351563445364407e-05</v>
+        <v>1.927297272062915e-06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.509181437331254e-06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>18.17358033857277</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001141327174541296</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.543395084643191</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1986,31 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>3.889532665500817e-05</v>
+        <v>3.87534443368451e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1.149878696608678e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>1.162744312033999e-05</v>
+        <v>-1.02870945590711e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1.255596389196358e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.037067663062205e-05</v>
+        <v>2.204248279022557e-06</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.806728435164124e-06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.612510889664792</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1068491601110939</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.903127722416198</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +2018,31 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>3.91852918542238e-05</v>
+        <v>3.900293112146136e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1.349946281365308e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>1.392614813697961e-05</v>
+        <v>-1.413019857900297e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1.25214266290241e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.440159473670533e-05</v>
+        <v>2.14178581207196e-06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.78980041156016e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6.766429759153354</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1487583006153922</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.691607439788338</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +2050,31 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>3.377221243904566e-05</v>
+        <v>3.352800191619802e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1.650289681245322e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>1.65049635961816e-05</v>
+        <v>-1.666258059701641e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1.761892337345392e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.626394859275372e-05</v>
+        <v>3.091655614965638e-06</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.836192908396658e-06</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7.965979959202481</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.09283237131224453</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.99149498980062</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +2082,31 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>3.346831370504394e-05</v>
+        <v>3.349238851338111e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2.125091102287224e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>2.324653643557207e-05</v>
+        <v>-1.955565102529934e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1.917025049077288e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.068083108532272e-05</v>
+        <v>2.979314520600748e-06</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.143601281575166e-06</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13.64023438747304</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.008536385085592069</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.41005859686826</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +2114,31 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>2.030528922984509e-05</v>
+        <v>1.997511949454252e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.159483145719541e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.149337388072378e-05</v>
+        <v>-8.96026770807707e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2.926595868657508e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>-8.399123550696463e-06</v>
+        <v>5.909207084198047e-06</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.738286911185414e-06</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.144599297657085</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.8871330067416813</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.2861498244142713</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +2146,31 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>2.152989413817617e-05</v>
+        <v>2.131144696453896e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6.232884471289385e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>5.821200579255567e-06</v>
+        <v>-1.040778247228135e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3.908568299304738e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.020103479860524e-05</v>
+        <v>7.686914524283366e-06</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.394863596737956e-06</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.09043678645321919</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9990079514944651</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0226091966133048</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +2178,31 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>2.312953565523576e-05</v>
+        <v>2.219729493384325e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1.368465632358199e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>1.604677434592272e-05</v>
+        <v>-8.940799910350874e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3.283081831034454e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.003356434100652e-05</v>
+        <v>5.60228210348564e-06</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.204659063533106e-06</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.061456705176019</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2810495837050009</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.265364176294005</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +2210,31 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>2.924126627126655e-05</v>
+        <v>2.963882706943104e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2.048139925474606e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>2.04392405522242e-05</v>
+        <v>-2.583197044782237e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>3.546594893674867e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.452747249300045e-05</v>
+        <v>6.90469933945887e-06</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.787507544387437e-06</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.7373000382705232</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9466506528882741</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1843250095676308</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +2242,31 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>3.860596880281796e-05</v>
+        <v>3.821506250129499e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2.652686881397767e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>2.607506735190277e-05</v>
+        <v>-1.972288432020929e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.378310582118854e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.852442089473157e-05</v>
+        <v>4.439331463044736e-06</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.481732174753246e-06</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.495659667438114</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3430624412620763</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.123914916859529</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +2274,31 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>4.456418255303293e-05</v>
+        <v>4.430516678239419e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2.737885058138119e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>2.838250967876568e-05</v>
+        <v>-2.71476258232858e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2.288405206123077e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.731393516242351e-05</v>
+        <v>3.845768677858675e-06</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.032254618601008e-06</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.62198488814326</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.229213176925581</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.405496222035815</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +2306,31 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>4.33881306397494e-05</v>
+        <v>4.290453802664195e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3.199215558372329e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>3.36416032896096e-05</v>
+        <v>-2.515900674863609e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2.391679226253154e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.608878404115692e-05</v>
+        <v>4.034929993359558e-06</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.283997935961393e-06</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.489598737812655</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2406452729115669</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.372399684453164</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +2338,31 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>4.993598101835402e-05</v>
+        <v>4.9341142502802e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2.834383158218324e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>2.873495606891631e-05</v>
+        <v>-2.409687030758901e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1.872987120622544e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.461676073076627e-05</v>
+        <v>3.230142252386645e-06</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.245951542980289e-06</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8.486426972232586</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.07529971605437513</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.121606743058146</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +2370,31 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>5.493356324943797e-05</v>
+        <v>5.440138573776089e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3.134291424980376e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>3.206163690697969e-05</v>
+        <v>-2.532336466702677e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1.678628876389402e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.666837826636843e-05</v>
+        <v>2.802203182458842e-06</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.860571843103778e-06</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12.74839450355098</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01257291725333987</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.187098625887745</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +2402,31 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>5.876866722875933e-05</v>
+        <v>5.813836212068943e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3.336738782815502e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>3.465223485110131e-05</v>
+        <v>-3.081797124795714e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1.649987047102202e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.259222212655011e-05</v>
+        <v>2.657896383678653e-06</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.718989502275131e-06</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.57918549057344</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1082678143019551</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.89479637264336</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +2434,31 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>6.368019793660606e-05</v>
+        <v>6.352353793670981e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3.495863234938287e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>3.530134507029568e-05</v>
+        <v>-3.206961256473905e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1.661196835491763e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.335898737444105e-05</v>
+        <v>2.590168913698575e-06</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.806259889612557e-06</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11.57746035924928</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.02078619387114944</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.89436508981232</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +2466,31 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>7.547664084662159e-05</v>
+        <v>7.453847728203698e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>4.510874959014536e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>4.765034442770865e-05</v>
+        <v>-5.006323566205973e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2.257356754182425e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>-5.301074841912452e-05</v>
+        <v>3.434138875054973e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.962701097166917e-06</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11.31650007994326</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.02322808094427131</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.829125019985814</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +2498,31 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>7.515135558302072e-05</v>
+        <v>7.464044729512447e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>5.308700203631935e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>5.496895621578677e-05</v>
+        <v>-6.161330591522803e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3.147082251957228e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>-6.21023661888807e-05</v>
+        <v>4.973737086601296e-06</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.877432711575305e-06</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.590250462140263</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1077948488400281</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.897562615535066</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +2530,31 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>6.816787821883584e-05</v>
+        <v>6.791109141908622e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>4.116015085969488e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>4.312518031684586e-05</v>
+        <v>-6.189804614785826e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.528122008094337e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>-6.22540644090631e-05</v>
+        <v>5.564475866105834e-06</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7.498996700860614e-06</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.110312973045008</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.1910601061233226</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.527578243261252</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +2562,31 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>6.745760864048136e-05</v>
+        <v>6.743796834185158e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>4.057756287268437e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>4.227323455008005e-05</v>
+        <v>-6.775197486665826e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>4.768437094615379e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>-6.762775112411167e-05</v>
+        <v>7.692840614576245e-06</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.017322971075685e-05</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.110144717981162</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.7155088575949322</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5275361794952904</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +2594,31 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>6.956949260928347e-05</v>
+        <v>6.879977870281649e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>4.501967689431813e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>4.430947134167413e-05</v>
+        <v>-7.180227254391382e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4.163575038982867e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>-7.07958361023794e-05</v>
+        <v>7.504673687529648e-06</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.958566183538643e-06</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.450207278677875</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8354234893011501</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.3625518196694688</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +2626,31 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>5.74563213306186e-05</v>
+        <v>5.785276149535625e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3.307695971908427e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>3.46527902021287e-05</v>
+        <v>-7.353006837710326e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>5.82531541570388e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.470768659930249e-05</v>
+        <v>8.802628232638754e-06</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.143968566024597e-05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.042574566240406</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9032730323261315</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2606436415601015</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +2658,31 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>4.658583735845563e-05</v>
+        <v>4.530007009933908e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2.45729733561949e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>2.7044922356055e-05</v>
+        <v>-4.213371266527789e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>6.810363285436232e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.396419803294186e-05</v>
+        <v>1.16460158892413e-05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.480666650949026e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.326094047355634</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8569329963024809</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3315235118389085</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +2690,31 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>5.55843327311912e-05</v>
+        <v>5.525609894118189e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2.738992852210386e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.755008693488029e-05</v>
+        <v>-4.198845376884032e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3.685737980599794e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.106314460272434e-05</v>
+        <v>6.389031621984821e-06</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.998877872851912e-06</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.431125648460557</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.350792492466002</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.107781412115139</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +2722,31 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>2.023057723001158e-05</v>
+        <v>2.057658051942194e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1.205553315381704e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>1.373052318897394e-05</v>
+        <v>-1.496544671274313e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>4.566306433902086e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.45210104878403e-05</v>
+        <v>6.622767255101048e-06</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9.003506858115715e-06</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.288473257397083</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8633281578951364</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3221183143492707</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +2754,31 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>1.605488958281866e-05</v>
+        <v>1.616989580530704e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1.318600866894045e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1.333102904133804e-05</v>
+        <v>-1.112973452536121e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4.216350554449061e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.067888637119258e-05</v>
+        <v>6.394228124803856e-06</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9.519450506795582e-06</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.4060424285963954</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9819792089843016</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1015106071490988</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +2786,31 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>1.99767222711823e-05</v>
+        <v>1.989321212338044e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1.925530782501247e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>2.009276931288625e-05</v>
+        <v>-2.050987740926071e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4.751442972779787e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.047920382678198e-05</v>
+        <v>4.539566245001206e-06</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9.028930909030846e-06</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.352012246956378</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.8524911357733331</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.3380030617390944</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +2818,31 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>5.136713028219087e-05</v>
+        <v>5.093663289267909e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3.867448994405417e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>4.072140911528111e-05</v>
+        <v>-5.806400012669365e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3.68138197682719e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.822937370062322e-05</v>
+        <v>6.01292484220902e-06</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8.139003503460622e-06</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.231221856094591</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.5199028907915673</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.8078054640236478</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +2850,31 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001422712612983079</v>
+        <v>0.0001443362492090448</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.0001079759260750044</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0001069504354076675</v>
+        <v>-0.0002125221509178499</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>6.070137185906307e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0002068384217614761</v>
+        <v>8.542634911167163e-06</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.255158097723681e-05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.576234593173548</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6310387812202173</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.644058648293387</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +2882,31 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0004248665086574576</v>
+        <v>0.0004271212079369821</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.0003082613942600923</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003062281956261301</v>
+        <v>-0.0007098879158200765</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1.424356190781311e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0007056905396420751</v>
+        <v>1.21870406415735e-05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.5474408074324e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.4089373804675509</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9817386549927961</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1022343451168877</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +2914,31 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0004542267613186252</v>
+        <v>0.0004710729775728672</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.0003387433340630254</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0003287940588873735</v>
+        <v>-0.0007789178045952485</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1.724294122590262e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.0007464831954831362</v>
+        <v>1.551000201004551e-05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.17881662174071e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.652037987360284</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.61763304647822</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.663009496840071</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +2946,31 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0003617185135120652</v>
+        <v>0.0003626365419699905</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0002586821550141292</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0002587291264890551</v>
+        <v>-0.0005919773563991877</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1.220230079342337e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0005904348777911331</v>
+        <v>1.261699331409815e-05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.286275278491484e-05</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.152441377704532</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.8858650300904979</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2881103444261329</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +2978,31 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0001859820345367077</v>
+        <v>0.0001895107200658693</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.0001336961691114014</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001341521502196016</v>
+        <v>-0.0002777233447162355</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>7.170408436394759e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0002705879259927963</v>
+        <v>8.961392437342574e-06</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.425890645155956e-05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.668170531725405</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3230697912180164</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.167042632931351</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +3010,31 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001711027944724829</v>
+        <v>0.000171143072343932</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.0001090694329833644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0001105225878526091</v>
+        <v>-0.0001695254761392903</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>5.795482444277467e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.0001670121329927217</v>
+        <v>8.792313481732068e-06</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.253927889745412e-05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.127722054065501</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1292906839978334</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.781930513516375</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +3042,31 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001986841998555341</v>
+        <v>0.0001986285017833293</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.0001347156128287209</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000140132415019661</v>
+        <v>-0.0002275280728737281</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>6.13295516082437e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.0002286049427114814</v>
+        <v>7.679113542649018e-06</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.257145171154075e-05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>11.22700265788337</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.02412785942205886</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.806750664470843</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +3074,31 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0002141062471544664</v>
+        <v>0.0002143596201955383</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.000107493130743824</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0001098912371710219</v>
+        <v>-0.0002376093479340869</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>5.715810075297204e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.0002381505785031429</v>
+        <v>7.010400110469605e-06</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.130481624302195e-05</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.665310370113862</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6152983530581266</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.6663275925284655</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +3106,31 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0001480488810753317</v>
+        <v>0.0001480140699273547</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6.285638211782574e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>6.398542434141047e-05</v>
+        <v>-0.0001293153491173542</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3.908034353300126e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0001296827518064297</v>
+        <v>5.354473277338693e-06</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8.036428522315658e-06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.228867341560693</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.8733233136754037</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3072168353901732</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +3138,31 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0001032329660521175</v>
+        <v>0.0001035104162505968</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>5.568290017912175e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>5.69606065565147e-05</v>
+        <v>-8.667760753680806e-05</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2.809863560398243e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>-8.618941956161943e-05</v>
+        <v>3.869404067622252e-06</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.973304719937422e-06</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5.276006597799348</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2601314205504383</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.319001649449837</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +3170,31 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>8.776922596466567e-05</v>
+        <v>8.820420325260118e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4.361158967956437e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>4.383682801042389e-05</v>
+        <v>-5.612420471156479e-05</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>2.240833096631176e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.533118347179481e-05</v>
+        <v>3.260164776602663e-06</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.932130357422825e-06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.938824852537776</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.2037636885639093</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.484706213134444</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +3202,31 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>9.596294575087218e-05</v>
+        <v>9.630164913766341e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>5.029893188380963e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>5.079860643259752e-05</v>
+        <v>-6.622657656162745e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>2.527997945883369e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.561485076209445e-05</v>
+        <v>3.654989835474718e-06</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.538125444702597e-06</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.015180768633927</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.1980174293228139</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.503795192158482</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +3234,31 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001569457863492687</v>
+        <v>0.0001566556269987577</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>8.466022099320589e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>8.741355587951955e-05</v>
+        <v>-0.0001354244831795262</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>4.012946324980183e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.0001367796836388793</v>
+        <v>5.15798149496343e-06</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8.363284278167651e-06</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5.654376356636444</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.2264892488009651</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.413594089159111</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +3266,31 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003181649057153164</v>
+        <v>0.0003219776331451081</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.0001742569565426953</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0001746025648989963</v>
+        <v>-0.0003465620864170582</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>8.198352003525949e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0003392102043254064</v>
+        <v>9.528120593739993e-06</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.631494762548846e-05</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.483686952298743</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4803631106894091</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.8709217380746858</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +3298,31 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0003262028832869621</v>
+        <v>0.0003283311086275171</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.0001702802383568593</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001719137427818128</v>
+        <v>-0.0003376606783097518</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>8.322962404928011e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0003339124175476537</v>
+        <v>9.903578925950202e-06</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.666207174105515e-05</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.883783536867469</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5774584919398817</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7209458842168672</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +3330,31 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0003087188338895297</v>
+        <v>0.0003111155445297561</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.0001708040025730083</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0001730248683052664</v>
+        <v>-0.0002952806240772932</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>8.042990345358802e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.0002907229515462623</v>
+        <v>9.993120664458835e-06</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.655926438481397e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.298777841916882</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.2579913591480385</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.324694460479221</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +3362,31 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002489749996287365</v>
+        <v>0.0002486736796246098</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.0001331371096627865</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0001369562267243409</v>
+        <v>-0.0001999724337121343</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>6.910536007215614e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0002011060998441553</v>
+        <v>9.823414967131358e-06</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.478437696298642e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.355992226082358</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.1740932192784872</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.588998056520589</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +3394,31 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001784801736533339</v>
+        <v>0.0001761230762134161</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.0001102811997154534</v>
       </c>
       <c r="D95" t="n">
-        <v>0.000114784537499005</v>
+        <v>-0.0001201151826940618</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>6.528834348389634e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0001242128999127177</v>
+        <v>1.061980455597876e-05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.441225656119474e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.842662719556306</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.2112104749578974</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.460665679889076</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +3426,31 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0002790198290187563</v>
+        <v>0.0002768117037002897</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0001487858709817106</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001519066583605833</v>
+        <v>-0.0001054443868998949</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>8.400899966068844e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0001108496014902238</v>
+        <v>1.428902192588482e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.936356986493933e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6.625477200276284</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.157054014446337</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.656369300069071</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +3458,31 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005785580066471716</v>
+        <v>0.0005779308048517445</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0003013808696765658</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0003023712330166803</v>
+        <v>-0.0001765919502696039</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1.41401995222401e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0001813026047451377</v>
+        <v>2.344128183567104e-05</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.304805698192298e-05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.24544238231223</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.5176226434226772</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.8113605955780576</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +3490,31 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0005082672060286416</v>
+        <v>0.0005064140692622108</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.000272827540557809</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0002750480540258421</v>
+        <v>-0.0001305649824585922</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1.219044558437146e-05</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0001413217491292706</v>
+        <v>2.038621676794738e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.881804922173164e-05</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4.658816632531624</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3241289946251706</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.164704158132906</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +3522,31 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0003357104555482348</v>
+        <v>0.0003348690260516001</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.0001868799295169425</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001871847459743643</v>
+        <v>-8.654011485530048e-05</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>7.975700611997649e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>-9.350301092730423e-05</v>
+        <v>1.339717150269914e-05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.899268912578185e-05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6.366424640965663</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1734037009624301</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.591606160241416</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +3554,31 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0002136126183544421</v>
+        <v>0.000212912160304673</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.0001041519512483109</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001042401151643308</v>
+        <v>-3.949010586874291e-05</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>5.083672745679498e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.610441575383759e-05</v>
+        <v>8.720484656586503e-06</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.212955537423244e-05</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.404129260128261</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.07784706835399813</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.101032315032065</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +3586,31 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001045983956698684</v>
+        <v>0.0001041654461004472</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>4.775183378136383e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>4.769239011509779e-05</v>
+        <v>-1.352014730326279e-05</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2.592107719865324e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.795665613655138e-05</v>
+        <v>4.573656597271556e-06</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6.196077242492489e-06</v>
+      </c>
+      <c r="H101" t="n">
+        <v>12.64485890164909</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.01314797814086277</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.161214725412274</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +3618,31 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>7.561832756767618e-05</v>
+        <v>7.564998114962568e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2.743978261318446e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>2.748461334059043e-05</v>
+        <v>-8.487231985576096e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1.826624221679718e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>-9.378492362111464e-06</v>
+        <v>3.219461099626916e-06</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.329253795498945e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4.899358253156669</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.2977807186944987</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.224839563289167</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +3650,31 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>7.989112592195719e-05</v>
+        <v>7.983011701780326e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2.695157425030307e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>2.767274509743596e-05</v>
+        <v>-1.866555657712752e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1.91850522230288e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.054258978129161e-05</v>
+        <v>3.176115255079561e-06</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.373956171441749e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10.21231954589328</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.03699909920564903</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.553079886473319</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +3682,31 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>8.523497956479823e-05</v>
+        <v>8.526316117597789e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>2.76550181833157e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>2.864980188423088e-05</v>
+        <v>-2.152889009513978e-05</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2.086824647671627e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>-2.360915413988693e-05</v>
+        <v>3.416789686317532e-06</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.730095488064546e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>13.83942049517114</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.007825594059197138</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.459855123792786</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +3714,31 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>9.151454638147779e-05</v>
+        <v>9.170484010215096e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3.745054689157626e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>3.746322482720814e-05</v>
+        <v>-2.652922010039211e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>2.158689772431806e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.756714830217982e-05</v>
+        <v>3.497860945812836e-06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.01173499994522e-06</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9.523635859425379</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.04926384214840629</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.380908964856345</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +3746,31 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>9.817095286410291e-05</v>
+        <v>9.790443955508839e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>4.217015781309604e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>4.283294173926361e-05</v>
+        <v>-2.794243842499201e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>2.516353508032782e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>-2.937564724175365e-05</v>
+        <v>4.230927728460389e-06</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.813819673265356e-06</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.723873622788177</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3168206077221394</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.180968405697044</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +3778,31 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>9.80596271715006e-05</v>
+        <v>9.780791071983686e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>4.97852247589892e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>5.026826127734598e-05</v>
+        <v>-3.044867553509407e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>2.48600584451171e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>-3.22577184649777e-05</v>
+        <v>4.166504764024509e-06</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.84374412573105e-06</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.666961857182597</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1545697543705568</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.666740464295649</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +3810,31 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>9.860115004455443e-05</v>
+        <v>9.823221345396264e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4.126327158211197e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>4.213956931184648e-05</v>
+        <v>-2.815796403870182e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2.674924071240158e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>-2.949431577460574e-05</v>
+        <v>4.544877127122944e-06</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6.130962420231596e-06</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.928289212862014</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.2947349293662405</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.232072303215503</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +3842,31 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0001030505143639751</v>
+        <v>0.0001028737381645135</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>4.083188074467769e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>4.150964182967346e-05</v>
+        <v>-3.350477305500595e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2.519392612320242e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>-3.467387534970494e-05</v>
+        <v>4.101973535799188e-06</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.74474252483086e-06</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.518317607945532</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.3403810078439922</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.129579401986383</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +3874,31 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0001049039304182231</v>
+        <v>0.0001046731153500818</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>5.437724665391472e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>5.512061204647764e-05</v>
+        <v>-4.148279928122857e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.746844804958198e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>-4.281916541915163e-05</v>
+        <v>4.460946225163331e-06</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6.334833802129585e-06</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.306188143631948</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.177419116450362</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.576547035907987</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +3906,31 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0001062448548961068</v>
+        <v>0.0001059833199159093</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>4.39653876009883e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>4.501874039666726e-05</v>
+        <v>-3.876004878002466e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>2.639692351782534e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.209453060317235e-05</v>
+        <v>4.210963944848242e-06</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6.007864451385002e-06</v>
+      </c>
+      <c r="H111" t="n">
+        <v>14.70243599770871</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.005359896560482746</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.675608999427177</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +3938,31 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0001072976022756504</v>
+        <v>0.0001069215436427642</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>4.588077535899155e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>4.735047923667302e-05</v>
+        <v>-4.901285710702424e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>2.697035062580076e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>-5.115527612044586e-05</v>
+        <v>4.255651511620456e-06</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6.030279520480595e-06</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8.918794130677282</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.06316160304145735</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.229698532669321</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +3970,31 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0001116795191207925</v>
+        <v>0.0001113377625149474</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>5.55841369215467e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>5.693304464435477e-05</v>
+        <v>-5.328219921560455e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2.931021222057099e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>-5.518478968836998e-05</v>
+        <v>4.595076898364647e-06</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.599865734319681e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8.025458581333352</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.09065005316397201</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.006364645333338</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +4002,31 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0001077801366671952</v>
+        <v>0.0001071986662298197</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>4.835356520564389e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>5.08271771012377e-05</v>
+        <v>-5.033500421603075e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2.753835505160261e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>-5.395451387763499e-05</v>
+        <v>4.254476497597963e-06</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6.123908026288414e-06</v>
+      </c>
+      <c r="H114" t="n">
+        <v>12.90172083778962</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01176612191800452</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.225430209447406</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +4034,31 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0001120427688101863</v>
+        <v>0.000111481721526022</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>5.132098283121433e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>5.270170089155495e-05</v>
+        <v>-5.455077563894979e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>2.832056957545499e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>-5.641319677231779e-05</v>
+        <v>4.448193432383957e-06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6.306832813028394e-06</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.015727081299817</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.4038816049331433</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.003931770324954</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +4066,31 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0001122285777724433</v>
+        <v>0.0001117146794260659</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>5.022761567931111e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>5.213159725547436e-05</v>
+        <v>-5.662116328559831e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2.891096408515941e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>-5.859633720188177e-05</v>
+        <v>4.498387544127665e-06</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6.417699061073125e-06</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.513983027258956</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.1639114689656721</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.628495756814739</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +4098,31 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0001161535364611242</v>
+        <v>0.0001153127925957037</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>5.575202875136098e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>5.815417236365328e-05</v>
+        <v>-6.404712070983239e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>2.98701746641926e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>-6.704181987579745e-05</v>
+        <v>4.522168627111058e-06</v>
+      </c>
+      <c r="G117" t="n">
+        <v>6.554985356572447e-06</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5.842799659253941</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.2111997015693843</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.460699914813485</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +4130,31 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001219672367368867</v>
+        <v>0.0001217625971343704</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>5.858153905096013e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>5.961270798645702e-05</v>
+        <v>-5.446160526672894e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>3.231082685321115e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>-5.579513539965232e-05</v>
+        <v>5.155631524872876e-06</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7.33571755127119e-06</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6.872421499184028</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.1427857288198371</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.718105374796007</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +4162,31 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>0.000115691832190492</v>
+        <v>0.0001152783671818451</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>5.248437177777243e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>5.421797696605075e-05</v>
+        <v>-5.585863281285696e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>2.875511747714586e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>-5.859065032635897e-05</v>
+        <v>4.406381267827618e-06</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6.425734705011809e-06</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10.45601206422705</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.03340833665836085</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.614003016056762</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +4194,31 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0001171101457650408</v>
+        <v>0.0001167263966082373</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>5.657288016069937e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>5.799357350861747e-05</v>
+        <v>-6.38671934539787e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>3.031249946370077e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>-6.519961944031931e-05</v>
+        <v>4.682074137860359e-06</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6.750213585180213e-06</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.60070773561489</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.3307725921779845</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.150176933903722</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +4226,31 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0001186961614072391</v>
+        <v>0.0001178702028058147</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>5.683807771691633e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>5.922601814298211e-05</v>
+        <v>-6.077492956855151e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2.970989782500919e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>-6.405856795880698e-05</v>
+        <v>4.533532099504624e-06</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6.601458562426853e-06</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7.697327422051585</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.1033162540168505</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.924331855512896</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +4258,31 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0001262676210666496</v>
+        <v>0.0001259204163923138</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>6.420498649471445e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>6.495754227060371e-05</v>
+        <v>-5.782952830313487e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>3.252902011127548e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>-6.097140422290314e-05</v>
+        <v>5.089129300979668e-06</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.424626147357175e-06</v>
+      </c>
+      <c r="H122" t="n">
+        <v>12.34547604500268</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.01495887411817942</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.08636901125067</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +4290,31 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0001219502328077958</v>
+        <v>0.0001212290775325095</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>6.230229930518624e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>6.398487001888479e-05</v>
+        <v>-5.953383179523755e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>2.986163755542509e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>-6.289187887318372e-05</v>
+        <v>4.555992201773295e-06</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.739734958706608e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8.935585906826025</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.06272984797183401</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.233896476706506</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +4322,31 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0001264042569246916</v>
+        <v>0.0001251448186431646</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>6.512553991387836e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>6.815684132277664e-05</v>
+        <v>-6.676316731334312e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>3.001272659856829e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>-7.254930687780982e-05</v>
+        <v>4.391280562028516e-06</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6.639455144677359e-06</v>
+      </c>
+      <c r="H124" t="n">
+        <v>12.36513308505463</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.01483286775664261</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.091283271263658</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +4354,31 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001356801573893468</v>
+        <v>0.0001353700042233444</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>6.371825551693872e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>6.465185551118682e-05</v>
+        <v>-5.605674359241623e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3.38279225003315e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>-5.773268116178139e-05</v>
+        <v>5.364128754225615e-06</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.682399776900783e-06</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4.728577959771671</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.3162974097850051</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.182144489942918</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +4386,31 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001464791374139633</v>
+        <v>0.0001451150896704264</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>7.612905826860677e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>7.932055392075493e-05</v>
+        <v>-7.545935702970086e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>3.520806437384537e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>-8.054885592871812e-05</v>
+        <v>5.256382659691306e-06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7.836479798640562e-06</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.993254443713717</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.1362451268448347</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.748313610928429</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +4418,31 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.000164595645623356</v>
+        <v>0.0001634719126619976</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>7.70817024897367e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>8.025856910590122e-05</v>
+        <v>-8.429232142099358e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>4.000530126967168e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>-8.900574117821423e-05</v>
+        <v>6.045234926280742e-06</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8.831632148347888e-06</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6.879420801174581</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.1423991496810033</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.719855200293645</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +4450,31 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001635316337679902</v>
+        <v>0.0001625995450027622</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>7.286882562055362e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>7.577809489823523e-05</v>
+        <v>-8.59000285787537e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>3.958826851208801e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>-8.976949005748575e-05</v>
+        <v>5.918412966235305e-06</v>
+      </c>
+      <c r="G128" t="n">
+        <v>8.683037677588325e-06</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5.599686400938808</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.2311049372914036</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.399921600234702</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +4482,31 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002013782397780881</v>
+        <v>0.0002009937508971939</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>8.647217919573638e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>8.791619428404999e-05</v>
+        <v>-0.0001144631660885936</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>5.019190087311365e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.0001155177861168413</v>
+        <v>7.587673015698186e-06</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.095188544722875e-05</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.204099095956042</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.87742326831174</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.3010247739890105</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +4514,31 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0003213277078338451</v>
+        <v>0.0003202037817367609</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.0001232414677051099</v>
       </c>
       <c r="D130" t="n">
-        <v>0.000126644446966676</v>
+        <v>-0.0001461043646773245</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>8.075810343373893e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.0001498938199080312</v>
+        <v>1.276982647898121e-05</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.777827554497404e-05</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.167778501014472</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.704932468035151</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.541944625253618</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +4546,31 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004358354730411279</v>
+        <v>0.0004352930615922308</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.0001778758077096121</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0001801494849910369</v>
+        <v>-0.0001671234054534479</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1.067524315715102e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.0001690524623940195</v>
+        <v>1.717164342644969e-05</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.403062534597844e-05</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.10223108474572</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8939180581602578</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.27555777118643</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +4578,31 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0004337751811948716</v>
+        <v>0.0004330414271437593</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.0001735024465908897</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0001765216034929387</v>
+        <v>-0.0001593933153256809</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1.095715022216568e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.0001647755211194846</v>
+        <v>1.77428680260709e-05</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.474404381831369e-05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.451132412432896</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.2440584912284967</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.362783103108224</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +4610,31 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0004097119086863409</v>
+        <v>0.0004089834935574273</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.0001698627478794806</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0001729453119211397</v>
+        <v>-0.0001726112448129323</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1.018933662817939e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.0001756681647659792</v>
+        <v>1.621549826629018e-05</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.272144164971166e-05</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.536446131645256</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.6381216554724859</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.6341115329113141</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +4642,31 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003999243056973386</v>
+        <v>0.0003999277368983325</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.0001544448961894439</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0001561095898216957</v>
+        <v>-0.0001508490389761401</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>9.98094077107569e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.0001516101777526357</v>
+        <v>1.616997998176126e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.250145429159173e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.950973314521611</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.5660631404854293</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.7377433286304027</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +4674,31 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003946968690279195</v>
+        <v>0.0003936348374723986</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>0.0001596401835078434</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0001631186829358853</v>
+        <v>-0.0001576107784588844</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>9.923503906547885e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.000161267057081953</v>
+        <v>1.597321394706532e-05</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.219877661905884e-05</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.861741562818005</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.7611691304591899</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.4654353907045012</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +4706,31 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0003728094417934033</v>
+        <v>0.0003727868314419133</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.0001459771593758881</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0001459767904349436</v>
+        <v>-0.0001409955606005974</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>9.675723782515096e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.0001404334644701939</v>
+        <v>1.61097386527622e-05</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.1785938805398e-05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.7046055381466871</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9507597521516641</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1761513845366718</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +4738,31 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003363798160873701</v>
+        <v>0.0003358446748281195</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.0001350783253935129</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0001359726851071807</v>
+        <v>-0.0001204495130757698</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>8.654514653719285e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.0001218047405074309</v>
+        <v>1.437013265966273e-05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.947794973311874e-05</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.7498732309879623</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.9450390937839342</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1874683077469906</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +4770,31 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002533369754966303</v>
+        <v>0.0002520930855681639</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.0001256572193808952</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0001278868112507975</v>
+        <v>-8.307642782269076e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>6.887368511875127e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>-8.769483329920319e-05</v>
+        <v>1.159940999577036e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.594679704256936e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4.78535617671172</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.3100385971612905</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.19633904417793</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +4802,31 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001818463600940342</v>
+        <v>0.0001808646670974973</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>8.791082764074076e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>9.06175078661247e-05</v>
+        <v>-8.792792517668918e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>4.981857138753359e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>-9.088344114132333e-05</v>
+        <v>7.932482085239192e-06</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.116175404217992e-05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4.491622825827714</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.3435419519870082</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.122905706456929</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +4834,31 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0003558601508971837</v>
+        <v>0.0003542424597741283</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.0001683134090119555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0001722994294404373</v>
+        <v>-0.0001795921173526926</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>8.44471824994842e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.0001849008765409761</v>
+        <v>1.264020479435275e-05</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.863824449163854e-05</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.739297070168271</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.7835674984165507</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.4348242675420677</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +4866,31 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003476395840523453</v>
+        <v>0.0003463301371260827</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.0001672571420966648</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0001701303868915066</v>
+        <v>-0.0001482294453292667</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>8.317521209231094e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.0001571573367300901</v>
+        <v>1.27495157994382e-05</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.882068929577379e-05</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8.595107903512591</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.0720562109970998</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.148776975878148</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +4898,31 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0003558639717768933</v>
+        <v>0.0003541152487855934</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.0001694355783057279</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0001730933165185659</v>
+        <v>-0.0001935429006710001</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>8.232781242942664e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.0001989321447836582</v>
+        <v>1.193509586420715e-05</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.796539744187449e-05</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.057563202921209</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9009454903890814</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.2643908007303023</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +4930,31 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0003216812105484949</v>
+        <v>0.0003192385516396756</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>0.0001764219791121883</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0001820766546578712</v>
+        <v>-0.0002033076589154624</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>7.648526812996306e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.0002117539208880526</v>
+        <v>1.057071849460373e-05</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.672251144691861e-05</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7.093069447559731</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.1310509132988195</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.773267361889933</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +4962,31 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0003210493696663315</v>
+        <v>0.0003212435259156648</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.0001799579382040251</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0001817254347075282</v>
+        <v>-0.0002086771201432146</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>7.79075646660776e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.0002114812386403193</v>
+        <v>1.070507071907271e-05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.712217563984321e-05</v>
+      </c>
+      <c r="H144" t="n">
+        <v>10.04228540458603</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.03972138214009058</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.510571351146508</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +4994,31 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0005728942653775673</v>
+        <v>0.0005735892885785573</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.00035823138705547</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0003600280743058513</v>
+        <v>-0.0004677884584541037</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1.452867826696344e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.00046530595745825</v>
+        <v>1.931341423990258e-05</v>
+      </c>
+      <c r="G145" t="n">
+        <v>3.108465505806196e-05</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.291422068956847</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8628292154391523</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.3228555172392117</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +5026,31 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0007533507219919058</v>
+        <v>0.0007487428387333323</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0004617282313454483</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0004721837673812516</v>
+        <v>-0.0005837383730843972</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1.824140621116398e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.0005948118731688705</v>
+        <v>2.347839371051991e-05</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3.887726387487481e-05</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.509891914197565</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.4763758521421357</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.8774729785493913</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +5058,31 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007327376284990213</v>
+        <v>0.000727418878187352</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0004532265703369987</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0004659471647495886</v>
+        <v>-0.000581993737742318</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1.83250240154514e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.0005952172574712763</v>
+        <v>2.394285020776746e-05</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.915527759564948e-05</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4.566778257802953</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.3347025778053763</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.141694564450738</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +5090,31 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007332289476608192</v>
+        <v>0.0007314119996501428</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.000479334080877838</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0004859131791648905</v>
+        <v>-0.0005785731111631605</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1.871369602028643e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.0005819478913606442</v>
+        <v>2.504350268268563e-05</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4.039936232197856e-05</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.566360826223009</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.6327935697851879</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.6415902065557523</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +5122,31 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007249372477553011</v>
+        <v>0.0007176960561035843</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0004606912210645806</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0004742419808405697</v>
+        <v>-0.0005642389594399124</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1.832166619248877e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.0005817989715883907</v>
+        <v>2.45164771485132e-05</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3.941986200171267e-05</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.671345272619008</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.452307298693423</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.917836318154752</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +5154,31 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007241830900608794</v>
+        <v>0.0007191717205265986</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0004439780052675651</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0004547753451294603</v>
+        <v>-0.0005614682494779744</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1.829702032781333e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.0005738925709045298</v>
+        <v>2.450531638407554e-05</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.92279720828822e-05</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.293937029774699</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.5098934552550649</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.8234842574436747</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +5186,31 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.001212399048011841</v>
+        <v>0.001206970243478462</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0007104105517165605</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0007219993949851886</v>
+        <v>-0.0006744299963483617</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2.885055642209591e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.0006915605934028601</v>
+        <v>4.174327923636023e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6.439171090526891e-05</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.188194120779726</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.5268399072352795</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.7970485301949316</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +5218,31 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.001284751691773449</v>
+        <v>0.001280933260067283</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.0007073645504185472</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0007167382670957921</v>
+        <v>-0.000622031617372175</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>3.013145807517198e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.000635426078150769</v>
+        <v>4.498686144807948e-05</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6.787828844755312e-05</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.483960188252804</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.6475102547130256</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.620990047063201</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +5250,31 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.001206294229474147</v>
+        <v>0.001200861853437134</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0006819868690355401</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0006926581347087742</v>
+        <v>-0.0005868613423614878</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>2.857292774940747e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.0006072033743485598</v>
+        <v>4.281269490412628e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>6.460371309198343e-05</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.784809232293755</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.4359113365401258</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.9462023080734386</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +5282,31 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.001169055717899092</v>
+        <v>0.001162674458224682</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.0006640140147983781</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0006756662248220253</v>
+        <v>-0.0005701407730987229</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>2.753885093387431e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.0005931808966942929</v>
+        <v>4.111112982334404e-05</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6.202747409457348e-05</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3.648092385560243</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.455720536421982</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.9120230963900607</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +5314,31 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.001163445293188818</v>
+        <v>0.001160898617735995</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.0006660279778461177</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0006707827371403667</v>
+        <v>-0.0005494743624145982</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2.767737986033409e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.0005674805682603448</v>
+        <v>4.178014100132427e-05</v>
+      </c>
+      <c r="G155" t="n">
+        <v>6.302624874315127e-05</v>
+      </c>
+      <c r="H155" t="n">
+        <v>6.835699066639325</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.1448297322996024</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.708924766659831</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +5346,31 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.001105474392191588</v>
+        <v>0.001098213815268014</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.0006253610748421453</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0006377890616839436</v>
+        <v>-0.0005044145793080144</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>2.618422353771328e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.0005310599589755561</v>
+        <v>3.976879977123141e-05</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.934367197698914e-05</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.830862200097243</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.4293798154952538</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.9577155500243106</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +5378,31 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001035328522806455</v>
+        <v>0.001029714188990649</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.0005671546444027127</v>
       </c>
       <c r="D157" t="n">
-        <v>0.000577352541022457</v>
+        <v>-0.0004582708713249842</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2.444869789567073e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.0004836147006928828</v>
+        <v>3.72061100715559e-05</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.560064781071282e-05</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5.787776240860626</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.2155677690846486</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.446944060215156</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +5410,31 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0008438528457633659</v>
+        <v>0.000842922513924335</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0004364118313830327</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0004383400250156671</v>
+        <v>-0.000292298286066395</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1.969161811749752e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.0002993135034284257</v>
+        <v>3.151802599588428e-05</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4.557362181804311e-05</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.231381607870838</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.5198772403431406</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8078454019677095</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +5442,31 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005990432957145214</v>
+        <v>0.0005966416831470272</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0002975244000819449</v>
       </c>
       <c r="D159" t="n">
-        <v>0.000301552408192297</v>
+        <v>-0.0001603552835928193</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.454232596506468e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.0001720829095849531</v>
+        <v>2.429126220989258e-05</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.398579363122235e-05</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.574201420997053</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.4666859054917054</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.8935503552492633</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +5474,31 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003415642298622797</v>
+        <v>0.0003405036327887341</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.0001593905739030983</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0001604091909871449</v>
+        <v>-6.507516351339022e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>8.420105224648775e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.109817443345241e-05</v>
+        <v>1.458566110696975e-05</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.985473362820163e-05</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.951850259027086</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.4125614267532274</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.9879625647567716</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +5506,31 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0003599395748921194</v>
+        <v>0.0003584223183430786</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0001838935767487761</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001847428930188445</v>
+        <v>-7.429678439845467e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>9.282702533128972e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>-8.467110296749167e-05</v>
+        <v>1.607699996699617e-05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2.203036138158113e-05</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8.010752758416197</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.0911851003478692</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.002688189604049</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +5538,31 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001960629387642823</v>
+        <v>0.0001953845190410132</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>8.566609701477009e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>8.6619761910265e-05</v>
+        <v>-5.443444906341998e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>5.340340078385773e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>-5.609331822573596e-05</v>
+        <v>9.244287793589737e-06</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.233668299913558e-05</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.914300460410646</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.7515175030999854</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.4785751151026614</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +5570,31 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001755853579394544</v>
+        <v>0.0001744985347934153</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>6.663458413769974e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>6.879843554923793e-05</v>
+        <v>-6.670733505311448e-05</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>5.069607369378977e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>-6.945073337978703e-05</v>
+        <v>8.523421277984056e-06</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.12499437079382e-05</v>
+      </c>
+      <c r="H163" t="n">
+        <v>4.918906707369532</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.2957198376295993</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.229726676842383</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +5602,31 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001858498611671586</v>
+        <v>0.0001857287643167257</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>7.767683201261277e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>7.866683838057253e-05</v>
+        <v>-9.037429738522094e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>5.179023941159333e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>-9.038418104474664e-05</v>
+        <v>8.469303575648125e-06</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.155496786052919e-05</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.713839589024283</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.7882021362252125</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.4284598972560709</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +5634,31 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001825944417807033</v>
+        <v>0.0001821680142356716</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>8.082560853157132e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>8.270624391727821e-05</v>
+        <v>-9.606949311497133e-05</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>5.12654696268504e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>-9.740832864859509e-05</v>
+        <v>8.194440731468719e-06</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.14375412322658e-05</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9.344331523919788</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.05304605669444806</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.336082880979947</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +5666,31 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001901200254847348</v>
+        <v>0.0001891902302614454</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>8.333476188007055e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>8.599101619979981e-05</v>
+        <v>-0.0001181626655780659</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>5.351780959383255e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.0001204645387442193</v>
+        <v>8.288189228362379e-06</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.158770868741078e-05</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.116210271011425</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.5385697132610728</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.7790525677528561</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +5698,31 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001946179379365885</v>
+        <v>0.000196548834304066</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>8.958660410079272e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>8.938875249089894e-05</v>
+        <v>-0.0001169769575719252</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>5.804942975891216e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.000112486162518125</v>
+        <v>9.346364163717666e-06</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.29913978581811e-05</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4.101833485694125</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.3923995782981143</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.025458371423531</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +5730,31 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001971068163478893</v>
+        <v>0.0001984060377758394</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>8.589049678785226e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>8.599734013746417e-05</v>
+        <v>-0.00012688593303167</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>5.354193193891653e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.0001232800207852455</v>
+        <v>8.201985262943912e-06</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.17234979650583e-05</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.607800904695841</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.4616773604712209</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.9019502261739604</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +5762,31 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002098772969026801</v>
+        <v>0.000209466175178964</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>9.330101275590997e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>9.62663757814324e-05</v>
+        <v>-0.0001439632408357673</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>5.493754951614264e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.0001456090181248695</v>
+        <v>7.899387671347855e-06</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.171676813129098e-05</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.206536766667755</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.523875793928911</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8016341916669387</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +5794,31 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0002212694419181425</v>
+        <v>0.0002205238983250576</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.0001075928457822008</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0001109112470840125</v>
+        <v>-0.0001514057334122491</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>5.57328643212708e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.0001539004511671354</v>
+        <v>7.928324057021764e-06</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.19935825506113e-05</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.664994747760083</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.4532376909161292</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.9162486869400208</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +5826,31 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002204450883987889</v>
+        <v>0.0002203156501077653</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.00011584960868035</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0001183805251243186</v>
+        <v>-0.0001417589957121517</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>5.748135744504166e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.0001437614791594198</v>
+        <v>8.345139461549042e-06</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.264574232029898e-05</v>
+      </c>
+      <c r="H171" t="n">
+        <v>8.82629383709796</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.06559103136962618</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.20657345927449</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +5858,31 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0002535283057969162</v>
+        <v>0.0002538122423835088</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.0001319797168360319</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0001344361620897766</v>
+        <v>-0.0001793159908131704</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>6.155177646761519e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.0001810941924839472</v>
+        <v>8.223906084366807e-06</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.325074625707165e-05</v>
+      </c>
+      <c r="H172" t="n">
+        <v>9.623181507576877</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.04727676054766072</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.405795376894219</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +5890,31 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.00032816848382198</v>
+        <v>0.0003289667756981168</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.0001815069031448091</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0001836102978862477</v>
+        <v>-0.0002671585009124673</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>7.993537780264405e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.0002659539946763874</v>
+        <v>1.015559354463601e-05</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.682311390274672e-05</v>
+      </c>
+      <c r="H173" t="n">
+        <v>4.360799039416976</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.3593736242257004</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.090199759854244</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +5922,31 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0004707989368461505</v>
+        <v>0.0004725361152475512</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.0002836018389468444</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0002880317979856907</v>
+        <v>-0.0004639789844976105</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1.186842438306888e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.0004609632769874559</v>
+        <v>1.386592398159054e-05</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2.421477346516013e-05</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6.162587358046792</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.187330721003683</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.540646839511698</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +5954,31 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0006746781874800408</v>
+        <v>0.0006828336471813415</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0003933655949369936</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0003898586990797781</v>
+        <v>-0.0007531352079844559</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1.645275095763616e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.0007362959031283577</v>
+        <v>1.730841503026033e-05</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3.214331031379457e-05</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.557326452425329</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.8164405822025435</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.3893316131063324</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +5986,31 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0007374891684831205</v>
+        <v>0.0007387878628650363</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.0004554202723951108</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0004624855020876094</v>
+        <v>-0.0008364318898261666</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.848507210849352e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.0008340718351234337</v>
+        <v>1.967670738694093e-05</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3.63133497301095e-05</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3.506790863326888</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.47684653034575</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.876697715831722</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +6018,31 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.001020144115469507</v>
+        <v>0.001027340769318157</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.0006314027051056907</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0006351933140115579</v>
+        <v>-0.001257450084354467</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>2.596554092637434e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.001244394965587107</v>
+        <v>2.6859387614602e-05</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.000521221575042e-05</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3.26976958074598</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.5137362219325282</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.8174423951864951</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +6050,31 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.00133655495524616</v>
+        <v>0.00134612550339523</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.0008288221743661978</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0008328191550644634</v>
+        <v>-0.001652855849459824</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>3.353184305605185e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.001635060245072225</v>
+        <v>3.354034967336607e-05</v>
+      </c>
+      <c r="G178" t="n">
+        <v>6.412034573191127e-05</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.700575850387699</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.60911384984638</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.6751439625969248</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +6082,31 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.001397422914957679</v>
+        <v>0.001405418337176707</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.0008864493255023973</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0009001321649602736</v>
+        <v>-0.001698868034598797</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>3.596841261802084e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.001685518567076745</v>
+        <v>3.778738311589719e-05</v>
+      </c>
+      <c r="G179" t="n">
+        <v>6.999363417407879e-05</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5.682198419495707</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.2241722315840431</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.420549604873927</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +6114,31 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.001498137715348429</v>
+        <v>0.001501190041287861</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.0009781919887127983</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0009933254341516844</v>
+        <v>-0.00175676865825239</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>3.824197064856169e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.001749979135899981</v>
+        <v>4.022432050338379e-05</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7.496802878011983e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4.431095783556485</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.3507961016603443</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.107773945889121</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +6146,31 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001735639298042133</v>
+        <v>0.00171193269820205</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.001146673179090432</v>
       </c>
       <c r="D181" t="n">
-        <v>0.001181209141883185</v>
+        <v>-0.001863872018584633</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>4.31498020087164e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.001911346700389721</v>
+        <v>4.734133919710617e-05</v>
+      </c>
+      <c r="G181" t="n">
+        <v>8.601175746116767e-05</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2.324547305273601</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.676303480796036</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.5811368263184002</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +6178,31 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001736321864831369</v>
+        <v>0.00174081053978685</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.001121883734919038</v>
       </c>
       <c r="D182" t="n">
-        <v>0.001126611234150642</v>
+        <v>-0.001850493822211284</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>4.232924353231369e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.001838514735843249</v>
+        <v>4.536685597062577e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>8.409493993944871e-05</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.56186641211144</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.8156289822182456</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.39046660302786</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +6210,31 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.002360363675207923</v>
+        <v>0.002330053681704893</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.001515951000635585</v>
       </c>
       <c r="D183" t="n">
-        <v>0.001570422848245946</v>
+        <v>-0.002133912147981983</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>5.803403357515306e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.002202686789598763</v>
+        <v>6.95711358087902e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0001202063859095359</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.664575887943616</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.2256374108814213</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.416143971985904</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +6242,31 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002794362321180171</v>
+        <v>0.002777051818939585</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.001783589358619076</v>
       </c>
       <c r="D184" t="n">
-        <v>0.001825201369951976</v>
+        <v>-0.002323259267611861</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>6.889371785912363e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.002366917430456876</v>
+        <v>8.653068056607915e-05</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.000145912405750964</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.724761240534955</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.2206677977667081</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.431190310133739</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +6274,31 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.003571009104265048</v>
+        <v>0.003554198540168744</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.00224979444313272</v>
       </c>
       <c r="D185" t="n">
-        <v>0.002291080018577803</v>
+        <v>-0.002802891286323331</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>8.47305018862744e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.002858559131869235</v>
+        <v>0.0001049250276788239</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0001804430164395037</v>
+      </c>
+      <c r="H185" t="n">
+        <v>8.510678334276561</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.07456421167848148</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.12766958356914</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +6306,31 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.004126478044191825</v>
+        <v>0.004096692620332089</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.002741587949951587</v>
       </c>
       <c r="D186" t="n">
-        <v>0.002792279223016678</v>
+        <v>-0.003222627908015608</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>9.709073688932669e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.003288278428279449</v>
+        <v>0.0001207517068389219</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0002061905853313229</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3.539629019855514</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.471878304591436</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.8849072549638786</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +6338,31 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.003987826393647754</v>
+        <v>0.003970110191009128</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.002526740327207724</v>
       </c>
       <c r="D187" t="n">
-        <v>0.002563627878496991</v>
+        <v>-0.003003736384283162</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>9.282267226546236e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.003063914278481941</v>
+        <v>0.0001153302991470178</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.000198445203722524</v>
+      </c>
+      <c r="H187" t="n">
+        <v>7.845941331229381</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.09738739188324874</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.961485332807345</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +6370,31 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.003917567515814249</v>
+        <v>0.003917810765979888</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.002444399329032068</v>
       </c>
       <c r="D188" t="n">
-        <v>0.002458337438612029</v>
+        <v>-0.003017098438491688</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>9.172480667409724e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.003012969939169804</v>
+        <v>0.0001151958016323532</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0001943769399141723</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.628657202768959</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.8036325684344732</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.4071643006922396</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +6402,31 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.003841871766303672</v>
+        <v>0.003832409999052429</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.002370987052496211</v>
       </c>
       <c r="D189" t="n">
-        <v>0.002397134601099568</v>
+        <v>-0.002701862299839475</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>8.990384690922359e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.002755795826764079</v>
+        <v>0.0001158900738788448</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0001951341879707804</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9.648130846598024</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.04679088410691912</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.412032711649506</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +6434,31 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.003057854650107562</v>
+        <v>0.003038581191113118</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.00188290025806198</v>
       </c>
       <c r="D190" t="n">
-        <v>0.001912898635746626</v>
+        <v>-0.00205060689778369</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>7.02777699844328e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.002121384344002122</v>
+        <v>9.136506679744899e-05</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0001528015147114766</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8.547585286911525</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.07345789654284041</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.136896321727881</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +6466,31 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.002270698963741654</v>
+        <v>0.002263213501663786</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.001394979270568021</v>
       </c>
       <c r="D191" t="n">
-        <v>0.001407366402578508</v>
+        <v>-0.001431620393246734</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>5.276148220360917e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.00147172683345402</v>
+        <v>7.111664168512203e-05</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0001163295008955908</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8.809908567565335</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.06603051529444048</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.202477141891334</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +6498,31 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001598187366148978</v>
+        <v>0.001594533535115869</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.0009337153527368878</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0009404962121827843</v>
+        <v>-0.0008760955887363647</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>3.71868758224657e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.0008989234109124564</v>
+        <v>5.304293961210292e-05</v>
+      </c>
+      <c r="G192" t="n">
+        <v>8.324003231856373e-05</v>
+      </c>
+      <c r="H192" t="n">
+        <v>6.693181450053184</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.1530181207107021</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.673295362513296</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +6530,31 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001088165981134394</v>
+        <v>0.001083916824702355</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>0.0006267424578314178</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0006312527155075515</v>
+        <v>-0.0004637904722115855</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>2.53288794051988e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.0004891203605819444</v>
+        <v>3.86430903146e-05</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5.819093405348083e-05</v>
+      </c>
+      <c r="H193" t="n">
+        <v>7.094324848782751</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.1309867600819268</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.773581212195688</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +6562,31 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0007631850092063158</v>
+        <v>0.0007589329745200496</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.0004333846654479413</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0004372043807663048</v>
+        <v>-0.0002485423977834438</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1.807108579875292e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.0002775786969908406</v>
+        <v>2.917283332121252e-05</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4.226089889065307e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>9.768417113559996</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.04451467762423267</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2.442104278389999</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +6594,31 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005654535911371725</v>
+        <v>0.000565086537369346</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.0003320295017498571</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0003321208605903142</v>
+        <v>-0.0001166531811773124</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.389630880441553e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.0001195778734270913</v>
+        <v>2.416239332478824e-05</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3.334616073580529e-05</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.228968679530783</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.6937293584293367</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.5572421698826957</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +6626,31 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005818114183711393</v>
+        <v>0.0005804448596163798</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.0003044267708556275</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0003023017992556249</v>
+        <v>-8.826283443877782e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1.369924875495507e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.0001063304794139175</v>
+        <v>2.378713222711033e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3.311017056511799e-05</v>
+      </c>
+      <c r="H196" t="n">
+        <v>8.669861307299858</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.06990243692305242</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2.167465326824964</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +6658,31 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005152307821169452</v>
+        <v>0.0005145229410671337</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.000256614291868563</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0002529406036578065</v>
+        <v>-2.091429378355751e-05</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1.189896762462629e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>-3.780872308695486e-05</v>
+        <v>2.153199808693917e-05</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.920362696232821e-05</v>
+      </c>
+      <c r="H197" t="n">
+        <v>8.931786445076426</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.062827294755473</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.232946611269107</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +6690,31 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004716804808244263</v>
+        <v>0.0004705563069913656</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>0.0002454251603550905</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0002451951281553624</v>
+        <v>-3.994056000644446e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1.091908469312161e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>-1.380459671342177e-05</v>
+        <v>2.008496742071643e-05</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.685519642306114e-05</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.820260281250182</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.5883405133746329</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.7050650703125455</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +6722,31 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004680111684471059</v>
+        <v>0.0004674154811885251</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>0.0002283185914025849</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0002243868471704107</v>
+        <v>2.103224281424921e-05</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1.060703999649934e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>3.880937805888698e-06</v>
+        <v>1.973844215860763e-05</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2.632540020044459e-05</v>
+      </c>
+      <c r="H199" t="n">
+        <v>8.547042180186182</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.07347406353547969</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2.136760545046545</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +6754,31 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004170439129167217</v>
+        <v>0.0004166921828318198</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>0.0002012200459397804</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0002009172697134199</v>
+        <v>2.202321578297496e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>9.48514828411991e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.772911410568029e-05</v>
+        <v>1.785451310806941e-05</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2.343439521166308e-05</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.439377842758745</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.8373228947722763</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.3598444606896863</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +6786,31 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004105617173295734</v>
+        <v>0.0004105540394460008</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.0001938088114798391</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0001892016795186776</v>
+        <v>4.861161182619078e-05</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>9.139596821827926e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>3.455933787786167e-05</v>
+        <v>1.746573625694146e-05</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2.304980593674507e-05</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8.421807707319074</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.07729310474833095</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2.105451926829768</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +6818,31 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004063397880162236</v>
+        <v>0.0004061347562524049</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.0001882755752618788</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0001876053548647479</v>
+        <v>3.200160330135411e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>9.026857278650118e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>2.770977301181282e-05</v>
+        <v>1.709658746574977e-05</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2.230755547019577e-05</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2.074377913063355</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.7220809253317186</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.5185944782658388</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +6850,31 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0004298934683063046</v>
+        <v>0.0004284535379414993</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>0.0002083946358280768</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0002093625561123884</v>
+        <v>-2.675082832116684e-05</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1.032837158772455e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>-3.686209797615426e-05</v>
+        <v>1.864906934014169e-05</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2.486036961867343e-05</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.894987333299772</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.4204042788686324</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.9737468333249429</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +6882,31 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000399528360172434</v>
+        <v>0.0003993481525582088</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.0001962072150337856</v>
       </c>
       <c r="D204" t="n">
-        <v>0.000192412769748572</v>
+        <v>1.830485302902916e-05</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>8.839083067033918e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>5.586065273081177e-06</v>
+        <v>1.645218241018983e-05</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.21039611141633e-05</v>
+      </c>
+      <c r="H204" t="n">
+        <v>8.082506784401183</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.08860219458401464</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.020626696100296</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +6914,31 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0005194272891887437</v>
+        <v>0.0005175148141041784</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>0.0002659443510558401</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0002687740339730025</v>
+        <v>-0.0001416286411387996</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1.263060618254163e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.0001523456702533455</v>
+        <v>2.114063369821228e-05</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.95690379060674e-05</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5.019092059321741</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.2853441347403132</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.254773014830435</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +6946,31 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005346881739430976</v>
+        <v>0.0005333306125373715</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.000283892388799395</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0002848749795140625</v>
+        <v>-0.0001337441802122</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1.227068904420497e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.0001467357268831442</v>
+        <v>2.036147588614292e-05</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.894046322780228e-05</v>
+      </c>
+      <c r="H206" t="n">
+        <v>6.877172424568599</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.142523225412464</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.71929310614215</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +6978,31 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0005049661078442538</v>
+        <v>0.0005029181598012597</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>0.0002625219700687367</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0002662758283711255</v>
+        <v>-0.0001614939890517296</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1.228107954453436e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.0001698908778913083</v>
+        <v>2.016513890025998e-05</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.846729970770664e-05</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.672328766325426</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.614065332871193</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.6680821915813566</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +7010,31 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004974543802964704</v>
+        <v>0.0004967673394174806</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>0.0002589739848837577</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0002605438743636469</v>
+        <v>-0.0001449036326040961</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1.214293734621204e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.0001498782819680015</v>
+        <v>2.021450747235608e-05</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.854667980196697e-05</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.51625243381628</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.4754114332212712</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.87906310845407</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +7042,31 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0004969701517124167</v>
+        <v>0.0004940882370220596</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>0.0002710394785822735</v>
       </c>
       <c r="D209" t="n">
-        <v>0.000275765977007397</v>
+        <v>-0.0001700780420275782</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1.211272056979885e-05</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.0001827647253883513</v>
+        <v>1.967889868745597e-05</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.805957594886809e-05</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4.683177844436418</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.3213763209375706</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.170794461109105</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +7074,31 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0004899426948212101</v>
+        <v>0.0004887419016672309</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>0.0002581312099044735</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0002605048918084199</v>
+        <v>-0.0001728000800245457</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1.207330199009401e-05</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.0001773089373845636</v>
+        <v>1.973550605871564e-05</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.79389108578118e-05</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.253556397363506</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.6892370988985268</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.5633890993408766</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +7106,31 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0004946137460341219</v>
+        <v>0.0004945558447156603</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>0.0002407280009412232</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0002412851303652759</v>
+        <v>-0.0001614937468029697</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1.150129454337936e-05</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.0001641102343144568</v>
+        <v>1.854542211610601e-05</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.665413050115667e-05</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3.200773757127316</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.5248059807567201</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.800193439281829</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +7138,31 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.000494549233464798</v>
+        <v>0.0004925300715757123</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>0.0002616306328607258</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0002632429253675579</v>
+        <v>-0.0001407435094305687</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1.139567477393132e-05</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.0001557549718514346</v>
+        <v>1.850636120314357e-05</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2.679279518427189e-05</v>
+      </c>
+      <c r="H212" t="n">
+        <v>7.939571232429213</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.09381702721731289</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.984892808107303</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +7170,31 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0004910200295719288</v>
+        <v>0.0004898403026467754</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.0002433571043989688</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0002464245035747172</v>
+        <v>-0.0001766099876492135</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1.189819152259106e-05</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.0001812120981116933</v>
+        <v>1.920355177683952e-05</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.731958354467441e-05</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.970663845466562</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.7411547714886254</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.4926659613666404</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +7202,31 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0005004748330991415</v>
+        <v>0.000499568328266484</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>0.0002689855694264933</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0002679321012124313</v>
+        <v>-0.0001336030436581666</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1.15175397689277e-05</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.0001455098653329583</v>
+        <v>1.892940832617711e-05</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2.730233130238375e-05</v>
+      </c>
+      <c r="H214" t="n">
+        <v>8.037118558347379</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.09022791842998823</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2.009279639586845</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +7234,31 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0004739752264050697</v>
+        <v>0.0004724715606968466</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>0.0002499965173605701</v>
       </c>
       <c r="D215" t="n">
-        <v>0.000250557939966172</v>
+        <v>-0.0001436107189024834</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1.076040861774992e-05</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.0001569496137409065</v>
+        <v>1.72762929512155e-05</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2.520057808895654e-05</v>
+      </c>
+      <c r="H215" t="n">
+        <v>8.399298761534546</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.07799908491434759</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.099824690383636</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +7266,31 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0004351273977081258</v>
+        <v>0.0004345211306332107</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.0002148197705658648</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0002160597848720112</v>
+        <v>-0.0001275156897133967</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>9.884585493077702e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.0001321933136680807</v>
+        <v>1.599827925810009e-05</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.304174787218968e-05</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3.307034908946563</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.5078184113379212</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.8267587272366407</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +7298,31 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0003683640358007864</v>
+        <v>0.0003675538242936099</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>0.0001696883392209567</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0001704992755506061</v>
+        <v>-7.593067879082096e-05</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>8.309148339428997e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>-8.268185340906258e-05</v>
+        <v>1.391664790416449e-05</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.958613930878952e-05</v>
+      </c>
+      <c r="H217" t="n">
+        <v>4.288698634309013</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.3683423984612675</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.072174658577253</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +7330,31 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>0.00035139120426795</v>
+        <v>0.0003508545767959552</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>0.0001614937062693129</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0001617843667065575</v>
+        <v>-6.165151609204814e-05</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>7.827115468407486e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>-6.768261927155508e-05</v>
+        <v>1.32691187278645e-05</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.853742107784713e-05</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4.412108118981327</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.3530967629977628</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.103027029745332</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +7362,31 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0003624096726621129</v>
+        <v>0.0003619759482315301</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.0001707680477986687</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0001698900937556715</v>
+        <v>-6.702489681659099e-05</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>8.037689812428185e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>-7.485608183963512e-05</v>
+        <v>1.354066394856426e-05</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1.912203358447827e-05</v>
+      </c>
+      <c r="H219" t="n">
+        <v>6.855898737287326</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.1437021120710158</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.713974684321832</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +7394,31 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0003503785355379956</v>
+        <v>0.0003500257609356088</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>0.0001579272346930395</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0001578642735645219</v>
+        <v>-5.759780752221039e-05</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>7.721831390152838e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>-6.257128708518166e-05</v>
+        <v>1.311886729379985e-05</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.834497025439704e-05</v>
+      </c>
+      <c r="H220" t="n">
+        <v>4.002073165432992</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.4057253499878944</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.000518291358248</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +7426,31 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0003428791851089405</v>
+        <v>0.0003426171315297464</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>0.000149180743546055</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0001490840702474689</v>
+        <v>-5.997483371893446e-05</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>7.543762650879276e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>-6.45296622689692e-05</v>
+        <v>1.27487952465693e-05</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.784487606032708e-05</v>
+      </c>
+      <c r="H221" t="n">
+        <v>4.152145516352554</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.3858066069592072</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.038036379088138</v>
       </c>
     </row>
     <row r="222">
@@ -4798,19 +7458,31 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0003404194048498071</v>
+        <v>0.0003400054390260924</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>0.0001463558656988278</v>
       </c>
       <c r="D222" t="n">
-        <v>0.000146880631771684</v>
+        <v>-6.283483381899329e-05</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>7.418742451258455e-06</v>
       </c>
       <c r="F222" t="n">
-        <v>-6.646523131599107e-05</v>
+        <v>1.247315301458953e-05</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.742748336971943e-05</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2.285941639118476</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.6833297634221196</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.571485409779619</v>
       </c>
     </row>
     <row r="223">
@@ -4818,19 +7490,31 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0003450229513619725</v>
+        <v>0.0003439561280567125</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>0.0001521113394395938</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0001522330632138721</v>
+        <v>-4.455019528241852e-05</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>7.528906694310609e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>-5.848925448671116e-05</v>
+        <v>1.280202307161493e-05</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.796389730310573e-05</v>
+      </c>
+      <c r="H223" t="n">
+        <v>9.634136801223393</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.04706281985729488</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.408534200305848</v>
       </c>
     </row>
     <row r="224">
@@ -4838,19 +7522,31 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0003633240563106065</v>
+        <v>0.0003626249953476194</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.0001472227123535208</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0001476229557366465</v>
+        <v>-5.303691201853904e-05</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>7.935840700980456e-06</v>
       </c>
       <c r="F224" t="n">
-        <v>-6.347158293418752e-05</v>
+        <v>1.338227404250203e-05</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.879293454763176e-05</v>
+      </c>
+      <c r="H224" t="n">
+        <v>7.66341399923714</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.1047155996595911</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.915853499809285</v>
       </c>
     </row>
     <row r="225">
@@ -4858,19 +7554,31 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0003620724964085549</v>
+        <v>0.000361450413830456</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.000151018305582257</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0001501856057547326</v>
+        <v>-4.149817287645561e-05</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>7.915194209843651e-06</v>
       </c>
       <c r="F225" t="n">
-        <v>-5.321366908834529e-05</v>
+        <v>1.356983027994156e-05</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1.895199228832018e-05</v>
+      </c>
+      <c r="H225" t="n">
+        <v>8.955738463645577</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.0622153806306317</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2.238934615911394</v>
       </c>
     </row>
     <row r="226">
@@ -4878,19 +7586,31 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0003475232997797018</v>
+        <v>0.0003470013455297152</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.0001627197613303448</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0001603795297951838</v>
+        <v>-3.208938428117666e-05</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>7.599118922912355e-06</v>
       </c>
       <c r="F226" t="n">
-        <v>-4.395174920731826e-05</v>
+        <v>1.325385452978226e-05</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1.845315630783762e-05</v>
+      </c>
+      <c r="H226" t="n">
+        <v>9.572531587119451</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.0482780317635445</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.393132896779863</v>
       </c>
     </row>
     <row r="227">
@@ -4898,19 +7618,31 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0003651306413256533</v>
+        <v>0.0003645497599999289</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>0.0001866245602228864</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0001861233885515272</v>
+        <v>-5.435780089708823e-05</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>7.925968125834861e-06</v>
       </c>
       <c r="F227" t="n">
-        <v>-6.172253329030538e-05</v>
+        <v>1.354079477807178e-05</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.906984126496224e-05</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.977283994168094</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.2896362512961397</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.244320998542024</v>
       </c>
     </row>
     <row r="228">
@@ -4918,19 +7650,31 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0003852491860777574</v>
+        <v>0.0003840847749143109</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>0.0002039875937213359</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0002029437527851862</v>
+        <v>-6.70537687462397e-05</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>8.420058668672016e-06</v>
       </c>
       <c r="F228" t="n">
-        <v>-8.021482202957368e-05</v>
+        <v>1.418228193293038e-05</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2.024672196636244e-05</v>
+      </c>
+      <c r="H228" t="n">
+        <v>8.384802282410899</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.07845697423399023</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.096200570602725</v>
       </c>
     </row>
     <row r="229">
@@ -4938,19 +7682,31 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0003824499465946166</v>
+        <v>0.0003808389674458491</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>0.0001965787451699104</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0001965658951974768</v>
+        <v>-7.798458995946628e-05</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>8.500323685044369e-06</v>
       </c>
       <c r="F229" t="n">
-        <v>-9.359338071051827e-05</v>
+        <v>1.413749666678345e-05</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2.030272896181956e-05</v>
+      </c>
+      <c r="H229" t="n">
+        <v>10.08992308687141</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.03893987764815676</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.522480771717853</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/a1/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a4/a4Fit.xlsx
@@ -471,7 +471,7 @@
         <v>8.021427790956034</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09079641319387932</v>
+        <v>0.09079641319387936</v>
       </c>
       <c r="J3" t="n">
         <v>2.005356947739009</v>
@@ -567,7 +567,7 @@
         <v>13.7225731098688</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008235211125858677</v>
+        <v>0.008235211125858708</v>
       </c>
       <c r="J6" t="n">
         <v>3.430643277467199</v>
@@ -599,7 +599,7 @@
         <v>8.109576780830526</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08764572868772136</v>
+        <v>0.08764572868772134</v>
       </c>
       <c r="J7" t="n">
         <v>2.027394195207632</v>
@@ -663,7 +663,7 @@
         <v>8.572762795592697</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07271210284307283</v>
+        <v>0.07271210284307282</v>
       </c>
       <c r="J9" t="n">
         <v>2.143190698898174</v>
@@ -695,7 +695,7 @@
         <v>4.744852327718792</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3144929094415192</v>
+        <v>0.3144929094415191</v>
       </c>
       <c r="J10" t="n">
         <v>1.186213081929698</v>
@@ -727,7 +727,7 @@
         <v>8.320591438691942</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08051580072310383</v>
+        <v>0.08051580072310387</v>
       </c>
       <c r="J11" t="n">
         <v>2.080147859672985</v>
@@ -791,7 +791,7 @@
         <v>7.880341567005613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0960610952251284</v>
+        <v>0.09606109522512846</v>
       </c>
       <c r="J13" t="n">
         <v>1.970085391751403</v>
@@ -823,7 +823,7 @@
         <v>16.26562247486925</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00268268350358003</v>
+        <v>0.002682683503580055</v>
       </c>
       <c r="J14" t="n">
         <v>4.066405618717312</v>
@@ -887,7 +887,7 @@
         <v>10.90979986075176</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02759666329019395</v>
+        <v>0.0275966632901939</v>
       </c>
       <c r="J16" t="n">
         <v>2.727449965187939</v>
@@ -919,7 +919,7 @@
         <v>11.06085887593101</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0258884920092316</v>
+        <v>0.02588849200923155</v>
       </c>
       <c r="J17" t="n">
         <v>2.765214718982752</v>
@@ -983,7 +983,7 @@
         <v>9.290084177140143</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0542439162832804</v>
+        <v>0.05424391628328036</v>
       </c>
       <c r="J19" t="n">
         <v>2.322521044285036</v>
@@ -1047,7 +1047,7 @@
         <v>11.16005922275348</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02482285777463533</v>
+        <v>0.02482285777463534</v>
       </c>
       <c r="J21" t="n">
         <v>2.790014805688371</v>
@@ -1111,7 +1111,7 @@
         <v>7.416549533349326</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1154459045829064</v>
+        <v>0.1154459045829063</v>
       </c>
       <c r="J23" t="n">
         <v>1.854137383337332</v>
@@ -1591,7 +1591,7 @@
         <v>5.473046469954681</v>
       </c>
       <c r="I38" t="n">
-        <v>0.242108895597672</v>
+        <v>0.2421088955976721</v>
       </c>
       <c r="J38" t="n">
         <v>1.36826161748867</v>
@@ -1783,7 +1783,7 @@
         <v>7.811062905209779</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09874959106711489</v>
+        <v>0.09874959106711488</v>
       </c>
       <c r="J44" t="n">
         <v>1.952765726302445</v>
@@ -1815,7 +1815,7 @@
         <v>11.60403648756731</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0205519618574308</v>
+        <v>0.02055196185743076</v>
       </c>
       <c r="J45" t="n">
         <v>2.901009121891828</v>
@@ -1911,7 +1911,7 @@
         <v>15.19763314230656</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004308385731117914</v>
+        <v>0.004308385731117941</v>
       </c>
       <c r="J48" t="n">
         <v>3.799408285576639</v>
@@ -1943,7 +1943,7 @@
         <v>16.15045488725938</v>
       </c>
       <c r="I49" t="n">
-        <v>0.002823779618605027</v>
+        <v>0.002823779618605028</v>
       </c>
       <c r="J49" t="n">
         <v>4.037613721814845</v>
@@ -1975,7 +1975,7 @@
         <v>18.17358033857277</v>
       </c>
       <c r="I50" t="n">
-        <v>0.001141327174541296</v>
+        <v>0.001141327174541286</v>
       </c>
       <c r="J50" t="n">
         <v>4.543395084643191</v>
@@ -2071,7 +2071,7 @@
         <v>7.965979959202481</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09283237131224453</v>
+        <v>0.09283237131224448</v>
       </c>
       <c r="J53" t="n">
         <v>1.99149498980062</v>
@@ -2103,7 +2103,7 @@
         <v>13.64023438747304</v>
       </c>
       <c r="I54" t="n">
-        <v>0.008536385085592069</v>
+        <v>0.008536385085592107</v>
       </c>
       <c r="J54" t="n">
         <v>3.41005859686826</v>
@@ -2359,7 +2359,7 @@
         <v>8.486426972232586</v>
       </c>
       <c r="I62" t="n">
-        <v>0.07529971605437513</v>
+        <v>0.07529971605437519</v>
       </c>
       <c r="J62" t="n">
         <v>2.121606743058146</v>
@@ -2391,7 +2391,7 @@
         <v>12.74839450355098</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01257291725333987</v>
+        <v>0.01257291725333989</v>
       </c>
       <c r="J63" t="n">
         <v>3.187098625887745</v>
@@ -2455,7 +2455,7 @@
         <v>11.57746035924928</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02078619387114944</v>
+        <v>0.02078619387114943</v>
       </c>
       <c r="J65" t="n">
         <v>2.89436508981232</v>
@@ -2487,7 +2487,7 @@
         <v>11.31650007994326</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02322808094427131</v>
+        <v>0.0232280809442713</v>
       </c>
       <c r="J66" t="n">
         <v>2.829125019985814</v>
@@ -3063,7 +3063,7 @@
         <v>11.22700265788337</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02412785942205886</v>
+        <v>0.02412785942205891</v>
       </c>
       <c r="J84" t="n">
         <v>2.806750664470843</v>
@@ -3191,7 +3191,7 @@
         <v>5.938824852537776</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2037636885639093</v>
+        <v>0.2037636885639092</v>
       </c>
       <c r="J88" t="n">
         <v>1.484706213134444</v>
@@ -3223,7 +3223,7 @@
         <v>6.015180768633927</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1980174293228139</v>
+        <v>0.1980174293228138</v>
       </c>
       <c r="J89" t="n">
         <v>1.503795192158482</v>
@@ -3255,7 +3255,7 @@
         <v>5.654376356636444</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2264892488009651</v>
+        <v>0.226489248800965</v>
       </c>
       <c r="J90" t="n">
         <v>1.413594089159111</v>
@@ -3575,7 +3575,7 @@
         <v>8.404129260128261</v>
       </c>
       <c r="I100" t="n">
-        <v>0.07784706835399813</v>
+        <v>0.07784706835399814</v>
       </c>
       <c r="J100" t="n">
         <v>2.101032315032065</v>
@@ -3607,7 +3607,7 @@
         <v>12.64485890164909</v>
       </c>
       <c r="I101" t="n">
-        <v>0.01314797814086277</v>
+        <v>0.01314797814086275</v>
       </c>
       <c r="J101" t="n">
         <v>3.161214725412274</v>
@@ -3671,7 +3671,7 @@
         <v>10.21231954589328</v>
       </c>
       <c r="I103" t="n">
-        <v>0.03699909920564903</v>
+        <v>0.03699909920564906</v>
       </c>
       <c r="J103" t="n">
         <v>2.553079886473319</v>
@@ -3703,7 +3703,7 @@
         <v>13.83942049517114</v>
       </c>
       <c r="I104" t="n">
-        <v>0.007825594059197138</v>
+        <v>0.007825594059197142</v>
       </c>
       <c r="J104" t="n">
         <v>3.459855123792786</v>
@@ -3735,7 +3735,7 @@
         <v>9.523635859425379</v>
       </c>
       <c r="I105" t="n">
-        <v>0.04926384214840629</v>
+        <v>0.0492638421484063</v>
       </c>
       <c r="J105" t="n">
         <v>2.380908964856345</v>
@@ -3831,7 +3831,7 @@
         <v>4.928289212862014</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2947349293662405</v>
+        <v>0.2947349293662404</v>
       </c>
       <c r="J108" t="n">
         <v>1.232072303215503</v>
@@ -3927,7 +3927,7 @@
         <v>14.70243599770871</v>
       </c>
       <c r="I111" t="n">
-        <v>0.005359896560482746</v>
+        <v>0.005359896560482749</v>
       </c>
       <c r="J111" t="n">
         <v>3.675608999427177</v>
@@ -3959,7 +3959,7 @@
         <v>8.918794130677282</v>
       </c>
       <c r="I112" t="n">
-        <v>0.06316160304145735</v>
+        <v>0.06316160304145738</v>
       </c>
       <c r="J112" t="n">
         <v>2.229698532669321</v>
@@ -3991,7 +3991,7 @@
         <v>8.025458581333352</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09065005316397201</v>
+        <v>0.09065005316397205</v>
       </c>
       <c r="J113" t="n">
         <v>2.006364645333338</v>
@@ -4023,7 +4023,7 @@
         <v>12.90172083778962</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01176612191800452</v>
+        <v>0.01176612191800449</v>
       </c>
       <c r="J114" t="n">
         <v>3.225430209447406</v>
@@ -4183,7 +4183,7 @@
         <v>10.45601206422705</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03340833665836085</v>
+        <v>0.03340833665836086</v>
       </c>
       <c r="J119" t="n">
         <v>2.614003016056762</v>
@@ -4215,7 +4215,7 @@
         <v>4.60070773561489</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3307725921779845</v>
+        <v>0.3307725921779844</v>
       </c>
       <c r="J120" t="n">
         <v>1.150176933903722</v>
@@ -4247,7 +4247,7 @@
         <v>7.697327422051585</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1033162540168505</v>
+        <v>0.1033162540168506</v>
       </c>
       <c r="J121" t="n">
         <v>1.924331855512896</v>
@@ -4279,7 +4279,7 @@
         <v>12.34547604500268</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01495887411817942</v>
+        <v>0.01495887411817938</v>
       </c>
       <c r="J122" t="n">
         <v>3.08636901125067</v>
@@ -4311,7 +4311,7 @@
         <v>8.935585906826025</v>
       </c>
       <c r="I123" t="n">
-        <v>0.06272984797183401</v>
+        <v>0.06272984797183398</v>
       </c>
       <c r="J123" t="n">
         <v>2.233896476706506</v>
@@ -4343,7 +4343,7 @@
         <v>12.36513308505463</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01483286775664261</v>
+        <v>0.01483286775664264</v>
       </c>
       <c r="J124" t="n">
         <v>3.091283271263658</v>
@@ -4375,7 +4375,7 @@
         <v>4.728577959771671</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3162974097850051</v>
+        <v>0.316297409785005</v>
       </c>
       <c r="J125" t="n">
         <v>1.182144489942918</v>
@@ -4439,7 +4439,7 @@
         <v>6.879420801174581</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1423991496810033</v>
+        <v>0.1423991496810034</v>
       </c>
       <c r="J127" t="n">
         <v>1.719855200293645</v>
@@ -4791,7 +4791,7 @@
         <v>4.78535617671172</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3100385971612905</v>
+        <v>0.3100385971612904</v>
       </c>
       <c r="J138" t="n">
         <v>1.19633904417793</v>
@@ -4887,7 +4887,7 @@
         <v>8.595107903512591</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0720562109970998</v>
+        <v>0.07205621099709977</v>
       </c>
       <c r="J141" t="n">
         <v>2.148776975878148</v>
@@ -4951,7 +4951,7 @@
         <v>7.093069447559731</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1310509132988195</v>
+        <v>0.1310509132988194</v>
       </c>
       <c r="J143" t="n">
         <v>1.773267361889933</v>
@@ -4983,7 +4983,7 @@
         <v>10.04228540458603</v>
       </c>
       <c r="I144" t="n">
-        <v>0.03972138214009058</v>
+        <v>0.03972138214009063</v>
       </c>
       <c r="J144" t="n">
         <v>2.510571351146508</v>
@@ -5527,7 +5527,7 @@
         <v>8.010752758416197</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0911851003478692</v>
+        <v>0.09118510034786918</v>
       </c>
       <c r="J161" t="n">
         <v>2.002688189604049</v>
@@ -5655,7 +5655,7 @@
         <v>9.344331523919788</v>
       </c>
       <c r="I165" t="n">
-        <v>0.05304605669444806</v>
+        <v>0.05304605669444801</v>
       </c>
       <c r="J165" t="n">
         <v>2.336082880979947</v>
@@ -5847,7 +5847,7 @@
         <v>8.82629383709796</v>
       </c>
       <c r="I171" t="n">
-        <v>0.06559103136962618</v>
+        <v>0.06559103136962614</v>
       </c>
       <c r="J171" t="n">
         <v>2.20657345927449</v>
@@ -5879,7 +5879,7 @@
         <v>9.623181507576877</v>
       </c>
       <c r="I172" t="n">
-        <v>0.04727676054766072</v>
+        <v>0.04727676054766067</v>
       </c>
       <c r="J172" t="n">
         <v>2.405795376894219</v>
@@ -5911,7 +5911,7 @@
         <v>4.360799039416976</v>
       </c>
       <c r="I173" t="n">
-        <v>0.3593736242257004</v>
+        <v>0.3593736242257005</v>
       </c>
       <c r="J173" t="n">
         <v>1.090199759854244</v>
@@ -6295,7 +6295,7 @@
         <v>8.510678334276561</v>
       </c>
       <c r="I185" t="n">
-        <v>0.07456421167848148</v>
+        <v>0.0745642116784815</v>
       </c>
       <c r="J185" t="n">
         <v>2.12766958356914</v>
@@ -6423,7 +6423,7 @@
         <v>9.648130846598024</v>
       </c>
       <c r="I189" t="n">
-        <v>0.04679088410691912</v>
+        <v>0.04679088410691917</v>
       </c>
       <c r="J189" t="n">
         <v>2.412032711649506</v>
@@ -6455,7 +6455,7 @@
         <v>8.547585286911525</v>
       </c>
       <c r="I190" t="n">
-        <v>0.07345789654284041</v>
+        <v>0.07345789654284039</v>
       </c>
       <c r="J190" t="n">
         <v>2.136896321727881</v>
@@ -6583,7 +6583,7 @@
         <v>9.768417113559996</v>
       </c>
       <c r="I194" t="n">
-        <v>0.04451467762423267</v>
+        <v>0.0445146776242327</v>
       </c>
       <c r="J194" t="n">
         <v>2.442104278389999</v>
@@ -6679,7 +6679,7 @@
         <v>8.931786445076426</v>
       </c>
       <c r="I197" t="n">
-        <v>0.062827294755473</v>
+        <v>0.06282729475547304</v>
       </c>
       <c r="J197" t="n">
         <v>2.232946611269107</v>
@@ -6807,7 +6807,7 @@
         <v>8.421807707319074</v>
       </c>
       <c r="I201" t="n">
-        <v>0.07729310474833095</v>
+        <v>0.07729310474833091</v>
       </c>
       <c r="J201" t="n">
         <v>2.105451926829768</v>
@@ -6903,7 +6903,7 @@
         <v>8.082506784401183</v>
       </c>
       <c r="I204" t="n">
-        <v>0.08860219458401464</v>
+        <v>0.08860219458401467</v>
       </c>
       <c r="J204" t="n">
         <v>2.020626696100296</v>
@@ -7063,7 +7063,7 @@
         <v>4.683177844436418</v>
       </c>
       <c r="I209" t="n">
-        <v>0.3213763209375706</v>
+        <v>0.3213763209375707</v>
       </c>
       <c r="J209" t="n">
         <v>1.170794461109105</v>
@@ -7223,7 +7223,7 @@
         <v>8.037118558347379</v>
       </c>
       <c r="I214" t="n">
-        <v>0.09022791842998823</v>
+        <v>0.09022791842998826</v>
       </c>
       <c r="J214" t="n">
         <v>2.009279639586845</v>
@@ -7351,7 +7351,7 @@
         <v>4.412108118981327</v>
       </c>
       <c r="I218" t="n">
-        <v>0.3530967629977628</v>
+        <v>0.3530967629977629</v>
       </c>
       <c r="J218" t="n">
         <v>1.103027029745332</v>
@@ -7511,7 +7511,7 @@
         <v>9.634136801223393</v>
       </c>
       <c r="I223" t="n">
-        <v>0.04706281985729488</v>
+        <v>0.04706281985729491</v>
       </c>
       <c r="J223" t="n">
         <v>2.408534200305848</v>
@@ -7575,7 +7575,7 @@
         <v>8.955738463645577</v>
       </c>
       <c r="I225" t="n">
-        <v>0.0622153806306317</v>
+        <v>0.06221538063063168</v>
       </c>
       <c r="J225" t="n">
         <v>2.238934615911394</v>
@@ -7607,7 +7607,7 @@
         <v>9.572531587119451</v>
       </c>
       <c r="I226" t="n">
-        <v>0.0482780317635445</v>
+        <v>0.04827803176354453</v>
       </c>
       <c r="J226" t="n">
         <v>2.393132896779863</v>
@@ -7671,7 +7671,7 @@
         <v>8.384802282410899</v>
       </c>
       <c r="I228" t="n">
-        <v>0.07845697423399023</v>
+        <v>0.07845697423399017</v>
       </c>
       <c r="J228" t="n">
         <v>2.096200570602725</v>
@@ -7703,7 +7703,7 @@
         <v>10.08992308687141</v>
       </c>
       <c r="I229" t="n">
-        <v>0.03893987764815676</v>
+        <v>0.03893987764815673</v>
       </c>
       <c r="J229" t="n">
         <v>2.522480771717853</v>
